--- a/data/df2_20200917_edited.xlsx
+++ b/data/df2_20200917_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\PycharmProjects\faq_chatbot_sciecne_3rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8092EEFA-E3B8-4D04-A4AB-35A4F7B14400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0D2E7-992D-4D5E-913F-0549FEDBF961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="742">
   <si>
     <t>구리의 질량을 증가시켜도 반응하는 구리와 산소의 질량비는 일정하다</t>
   </si>
@@ -2105,18 +2105,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3학년 때 뭐 배워요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>교과서를 보세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3학년에</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>쌤 모하세여!</t>
   </si>
   <si>
@@ -2366,183 +2354,184 @@
     <t>쌤 저 안보고싶으세여?</t>
   </si>
   <si>
+    <t>하.......</t>
+  </si>
+  <si>
+    <t>재미업네진짜</t>
+  </si>
+  <si>
+    <t>쌤 혜원이 아세여?</t>
+  </si>
+  <si>
+    <t>쌤 혜워니 아세여?</t>
+  </si>
+  <si>
+    <t>쌤 혜원이 아새여?</t>
+  </si>
+  <si>
+    <t>이상하게알아먹어여</t>
+  </si>
+  <si>
+    <t>와그러세여...</t>
+  </si>
+  <si>
+    <t>외그러세여~</t>
+  </si>
+  <si>
+    <t>혜워니 아새여?</t>
+  </si>
+  <si>
+    <t>민태호 선생님이 뭐하는지는 모르죠. 전 인공지능일 뿐인 걸요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 질문답변 인공지능 '언제나 깨어있는 민태호'입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미워하지 마세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일 망고 맛있죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>니가 지금 하고 있는 질문이요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 쌓인 데이터가 부족해서 모르는 게 많아요. 부디 너그럽게 봐주세요.</t>
+  </si>
+  <si>
+    <t>아직 쌓인 데이터가 부족해서 모르는 게 많아요. 부디 너그럽게 봐주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 2021년에 만들어진 인공지능이에요. 이제 1살이죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상상은 자유죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 아름다움의 기준은 사람마다 다른 거니까요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무리 인공지능이라도 그런 거까진 몰라요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 인공지능일 뿐이에요. 그런 일은 못해요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반편성은 2월 26일에 나와요.</t>
+  </si>
+  <si>
+    <t>반편성은 2월 26일에 나와요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 인공지능이라서 인공지능이랑만 친구해요. 사람은 몰라요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>절 만든 분은 민태호 선생님이에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저를 만든 분이에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 그래요? 필요할 때 불러주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 한숨을 쉬세요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 가는 날짜는 코로나 상황에 따라 다르겠죠? 선생님께 여쭤보세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학 변화가 일어날 때 화학식을 이용하여 화학 반응을 나타낸 겁니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구체적으로 어떤 걸 알고 싶어요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰라요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트는 매주 토요일에 하는데, 민태호씨가 바쁘면 못할 수도 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘 어쩌라고요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫음 말구요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아닌거 같은데</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재미없어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 그냥 인공지능인데 당연히 재미없죠. 재밌으려면 예능 프로그램이라도 보세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐가 문제죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 가끔은 그럴 때도 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕히 가세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 그러세요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 아직 모르는 게 많아서 그래요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성은이 아세여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성으니 아세여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성은 아세여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장혜원 아세여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>응.........</t>
-  </si>
-  <si>
-    <t>하.......</t>
-  </si>
-  <si>
-    <t>재미업네진짜</t>
-  </si>
-  <si>
-    <t>쌤 혜원이 아세여?</t>
-  </si>
-  <si>
-    <t>쌤 혜워니 아세여?</t>
-  </si>
-  <si>
-    <t>쌤 혜원이 아새여?</t>
-  </si>
-  <si>
-    <t>이상하게알아먹어여</t>
-  </si>
-  <si>
-    <t>와그러세여...</t>
-  </si>
-  <si>
-    <t>외그러세여~</t>
-  </si>
-  <si>
-    <t>혜워니 아새여?</t>
-  </si>
-  <si>
-    <t>민태호 선생님이 뭐하는지는 모르죠. 전 인공지능일 뿐인 걸요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 질문답변 인공지능 '언제나 깨어있는 민태호'입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미워하지 마세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일 망고 맛있죠.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>니가 지금 하고 있는 질문이요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직 쌓인 데이터가 부족해서 모르는 게 많아요. 부디 너그럽게 봐주세요.</t>
-  </si>
-  <si>
-    <t>아직 쌓인 데이터가 부족해서 모르는 게 많아요. 부디 너그럽게 봐주세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 2021년에 만들어진 인공지능이에요. 이제 1살이죠.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상상은 자유죠.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐, 아름다움의 기준은 사람마다 다른 거니까요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무리 인공지능이라도 그런 거까진 몰라요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 인공지능일 뿐이에요. 그런 일은 못해요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>반편성은 2월 26일에 나와요.</t>
-  </si>
-  <si>
-    <t>반편성은 2월 26일에 나와요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 인공지능이라서 인공지능이랑만 친구해요. 사람은 몰라요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>절 만든 분은 민태호 선생님이에요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저를 만든 분이에요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 그래요? 필요할 때 불러주세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 한숨을 쉬세요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 가는 날짜는 코로나 상황에 따라 다르겠죠? 선생님께 여쭤보세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>화학 변화가 일어날 때 화학식을 이용하여 화학 반응을 나타낸 겁니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구체적으로 어떤 걸 알고 싶어요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>몰라요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>업데이트는 매주 토요일에 하는데, 민태호씨가 바쁘면 못할 수도 있어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭘 어쩌라고요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>싫음 말구요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아닌거 같은데</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>재미없어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 그냥 인공지능인데 당연히 재미없죠. 재밌으려면 예능 프로그램이라도 보세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐가 문제죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐 가끔은 그럴 때도 있어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕히 가세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 그러세요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제가 아직 모르는 게 많아서 그래요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>성은이 아세여?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>성으니 아세여?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김성은 아세여?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장혜원 아세여?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2912,10 +2901,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C464"/>
+  <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A464" sqref="A464"/>
+    <sheetView tabSelected="1" topLeftCell="A449" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3667,7 +3656,7 @@
         <v>260</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -3810,7 +3799,7 @@
         <v>263</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -4008,7 +3997,7 @@
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -4569,7 +4558,7 @@
         <v>151</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
@@ -4690,7 +4679,7 @@
         <v>475</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
@@ -5042,7 +5031,7 @@
         <v>497</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
@@ -5372,7 +5361,7 @@
         <v>515</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
@@ -5790,7 +5779,7 @@
         <v>50</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
@@ -5845,7 +5834,7 @@
         <v>545</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
@@ -6175,7 +6164,7 @@
         <v>124</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.4">
@@ -6824,7 +6813,7 @@
         <v>608</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.4">
@@ -6835,7 +6824,7 @@
         <v>609</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.4">
@@ -6846,29 +6835,29 @@
         <v>610</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A358" s="1">
         <v>357</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>613</v>
+      <c r="B358" t="s">
+        <v>611</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>612</v>
+        <v>703</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A359" s="1">
         <v>358</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>611</v>
+      <c r="B359" t="s">
+        <v>612</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>612</v>
+        <v>707</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.4">
@@ -6876,10 +6865,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>707</v>
+        <v>361</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.4">
@@ -6887,10 +6876,10 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.4">
@@ -6898,10 +6887,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>361</v>
+        <v>704</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.4">
@@ -6909,10 +6898,10 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.4">
@@ -6920,10 +6909,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.4">
@@ -6931,7 +6920,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>709</v>
@@ -6942,10 +6931,10 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>710</v>
+        <v>361</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.4">
@@ -6953,10 +6942,10 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>713</v>
+        <v>572</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.4">
@@ -6964,10 +6953,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>361</v>
+        <v>710</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.4">
@@ -6975,10 +6964,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>572</v>
+        <v>710</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.4">
@@ -6986,10 +6975,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.4">
@@ -6997,10 +6986,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.4">
@@ -7008,10 +6997,10 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.4">
@@ -7019,10 +7008,10 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>716</v>
+        <v>509</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.4">
@@ -7030,10 +7019,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.4">
@@ -7041,10 +7030,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>509</v>
+        <v>714</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.4">
@@ -7052,10 +7041,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.4">
@@ -7063,10 +7052,10 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>718</v>
+        <v>603</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.4">
@@ -7074,10 +7063,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.4">
@@ -7085,10 +7074,10 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>603</v>
+        <v>361</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.4">
@@ -7096,10 +7085,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>720</v>
+        <v>603</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.4">
@@ -7107,10 +7096,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>361</v>
+        <v>717</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.4">
@@ -7118,10 +7107,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>603</v>
+        <v>710</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.4">
@@ -7129,10 +7118,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.4">
@@ -7140,10 +7129,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>638</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>714</v>
+        <v>637</v>
+      </c>
+      <c r="C384" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.4">
@@ -7151,10 +7140,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>722</v>
+        <v>456</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.4">
@@ -7162,10 +7151,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>640</v>
-      </c>
-      <c r="C386" t="s">
-        <v>712</v>
+        <v>639</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.4">
@@ -7173,10 +7162,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>456</v>
+        <v>361</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.4">
@@ -7184,10 +7173,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>723</v>
+        <v>572</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.4">
@@ -7195,10 +7184,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>361</v>
+        <v>710</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.4">
@@ -7206,10 +7195,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>572</v>
+        <v>720</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.4">
@@ -7217,10 +7206,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>714</v>
+        <v>449</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.4">
@@ -7228,10 +7217,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.4">
@@ -7239,7 +7228,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>449</v>
@@ -7250,10 +7239,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>725</v>
+        <v>354</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.4">
@@ -7261,10 +7250,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>449</v>
+        <v>359</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.4">
@@ -7272,10 +7261,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>354</v>
+        <v>720</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.4">
@@ -7283,10 +7272,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>359</v>
+        <v>509</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.4">
@@ -7294,10 +7283,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.4">
@@ -7305,10 +7294,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>509</v>
+        <v>603</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.4">
@@ -7316,10 +7305,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.4">
@@ -7327,10 +7316,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>603</v>
+        <v>481</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.4">
@@ -7338,10 +7327,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.4">
@@ -7349,10 +7338,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>481</v>
+        <v>717</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.4">
@@ -7360,10 +7349,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.4">
@@ -7371,10 +7360,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.4">
@@ -7382,10 +7371,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>710</v>
+        <v>534</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.4">
@@ -7393,10 +7382,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>710</v>
+        <v>532</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.4">
@@ -7404,10 +7393,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.4">
@@ -7415,10 +7404,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>532</v>
+        <v>363</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.4">
@@ -7426,10 +7415,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>509</v>
+        <v>363</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.4">
@@ -7437,10 +7426,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>363</v>
+        <v>724</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.4">
@@ -7448,10 +7437,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>363</v>
+        <v>716</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.4">
@@ -7459,10 +7448,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>728</v>
+        <v>456</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.4">
@@ -7470,10 +7459,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.4">
@@ -7481,10 +7470,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>456</v>
+        <v>354</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.4">
@@ -7492,10 +7481,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>713</v>
+        <v>424</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.4">
@@ -7503,10 +7492,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>354</v>
+        <v>725</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.4">
@@ -7514,10 +7503,10 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>424</v>
+        <v>726</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.4">
@@ -7525,10 +7514,10 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.4">
@@ -7536,10 +7525,10 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>730</v>
+        <v>363</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.4">
@@ -7547,10 +7536,10 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>713</v>
+        <v>517</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.4">
@@ -7558,10 +7547,10 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>675</v>
+        <v>619</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.4">
@@ -7569,10 +7558,10 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>517</v>
+        <v>555</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.4">
@@ -7580,10 +7569,10 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>622</v>
+        <v>675</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>361</v>
+        <v>727</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.4">
@@ -7591,10 +7580,10 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>555</v>
+        <v>727</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.4">
@@ -7602,10 +7591,10 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>731</v>
+        <v>555</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.4">
@@ -7613,10 +7602,10 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>731</v>
+        <v>509</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.4">
@@ -7624,10 +7613,10 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.4">
@@ -7635,10 +7624,10 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>509</v>
+        <v>728</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.4">
@@ -7646,7 +7635,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>509</v>
@@ -7657,10 +7646,10 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.4">
@@ -7668,10 +7657,10 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>509</v>
+        <v>709</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.4">
@@ -7679,21 +7668,21 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A434" s="1">
         <v>433</v>
       </c>
-      <c r="B434" t="s">
-        <v>686</v>
+      <c r="B434" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.4">
@@ -7701,21 +7690,21 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>717</v>
+        <v>424</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A436" s="1">
         <v>435</v>
       </c>
-      <c r="B436" s="2" t="s">
-        <v>734</v>
+      <c r="B436" t="s">
+        <v>686</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>735</v>
+        <v>572</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.4">
@@ -7723,10 +7712,10 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>424</v>
+        <v>710</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.4">
@@ -7734,10 +7723,10 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>572</v>
+        <v>720</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.4">
@@ -7745,10 +7734,10 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.4">
@@ -7756,10 +7745,10 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.4">
@@ -7767,10 +7756,10 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>713</v>
+        <v>456</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.4">
@@ -7778,21 +7767,21 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A443" s="1">
         <v>442</v>
       </c>
-      <c r="B443" t="s">
-        <v>693</v>
+      <c r="B443" s="2" t="s">
+        <v>729</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>456</v>
+        <v>709</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.4">
@@ -7800,32 +7789,32 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A445" s="1">
         <v>444</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" t="s">
+        <v>693</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A446" s="1">
         <v>445</v>
       </c>
-      <c r="B446" t="s">
-        <v>695</v>
+      <c r="B446" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.4">
@@ -7833,10 +7822,10 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>737</v>
+        <v>456</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.4">
@@ -7844,10 +7833,10 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.4">
@@ -7855,10 +7844,10 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>456</v>
+        <v>717</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.4">
@@ -7866,10 +7855,10 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.4">
@@ -7877,10 +7866,10 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.4">
@@ -7888,10 +7877,10 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.4">
@@ -7899,21 +7888,21 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>702</v>
+        <v>652</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A454" s="1">
         <v>453</v>
       </c>
-      <c r="B454" t="s">
-        <v>702</v>
+      <c r="B454" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.4">
@@ -7921,21 +7910,21 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>655</v>
+        <v>699</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A456" s="1">
         <v>455</v>
       </c>
-      <c r="B456" s="2" t="s">
-        <v>739</v>
+      <c r="B456" t="s">
+        <v>700</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.4">
@@ -7943,10 +7932,10 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.4">
@@ -7954,32 +7943,32 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A459" s="1">
         <v>458</v>
       </c>
-      <c r="B459" t="s">
-        <v>705</v>
+      <c r="B459" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A460" s="1">
         <v>459</v>
       </c>
-      <c r="B460" t="s">
-        <v>706</v>
+      <c r="B460" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.4">
@@ -7987,10 +7976,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.4">
@@ -7998,32 +7987,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A463" s="1">
-        <v>462</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A464" s="1">
-        <v>463</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>

--- a/data/df2_20200917_edited.xlsx
+++ b/data/df2_20200917_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\PycharmProjects\faq_chatbot_sciecne_3rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0D2E7-992D-4D5E-913F-0549FEDBF961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFDB7EB-DD06-49FB-BA8F-835B9572F0A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2126,412 +2126,419 @@
     <t>? 망고는 맛있어</t>
   </si>
   <si>
+    <t>안녕하세요~</t>
+  </si>
+  <si>
+    <t>민태호씨는 몇살인가여</t>
+  </si>
+  <si>
+    <t>언제나 깨어있는 민태호 나이</t>
+  </si>
+  <si>
+    <t>성은이는 너무예뻐여</t>
+  </si>
+  <si>
+    <t>쌤 2021년에 2학년 맡아여?</t>
+  </si>
+  <si>
+    <t>3학년하새여</t>
+  </si>
+  <si>
+    <t>3학년 해주세여</t>
+  </si>
+  <si>
+    <t>개학 언제야</t>
+  </si>
+  <si>
+    <t>반편성 언제 나와</t>
+  </si>
+  <si>
+    <t>안녕하세여~</t>
+  </si>
+  <si>
+    <t>아 개학 언제해여~</t>
+  </si>
+  <si>
+    <t>쌤 저 아세여?</t>
+  </si>
+  <si>
+    <t>쌤 이름이머에여</t>
+  </si>
+  <si>
+    <t>아는말이뭐야ㅑ도대채</t>
+  </si>
+  <si>
+    <t>하...............</t>
+  </si>
+  <si>
+    <t>민태호가 누군지아세여?</t>
+  </si>
+  <si>
+    <t>민태호는 몇살인가여</t>
+  </si>
+  <si>
+    <t>언제나 깨어있는 민태호는 몇살인가여</t>
+  </si>
+  <si>
+    <t>부른적업는데여</t>
+  </si>
+  <si>
+    <t>쌤 너무 가여워여</t>
+  </si>
+  <si>
+    <t>아니...하......</t>
+  </si>
+  <si>
+    <t>가여워요 쌤</t>
+  </si>
+  <si>
+    <t>태호쌤!!!!!!</t>
+  </si>
+  <si>
+    <t>언제나 깨어있는 민태호씨</t>
+  </si>
+  <si>
+    <t>부른적업너요</t>
+  </si>
+  <si>
+    <t>쌤 보고싶어여</t>
+  </si>
+  <si>
+    <t>학교언제가여?</t>
+  </si>
+  <si>
+    <t>개학언제해요?</t>
+  </si>
+  <si>
+    <t>쌤 혜워니 아새여?</t>
+  </si>
+  <si>
+    <t>과학진짜노잼</t>
+  </si>
+  <si>
+    <t>물질의 화학식</t>
+  </si>
+  <si>
+    <t>쌤 혜워니 아시냐고여</t>
+  </si>
+  <si>
+    <t>망고는 맛ㄱ있어</t>
+  </si>
+  <si>
+    <t>망고는 맛있어</t>
+  </si>
+  <si>
+    <t>망고 아세여?</t>
+  </si>
+  <si>
+    <t>민망고~~~~~~~~</t>
+  </si>
+  <si>
+    <t>망고 보고싶당</t>
+  </si>
+  <si>
+    <t>외여???????</t>
+  </si>
+  <si>
+    <t>외??????여??????</t>
+  </si>
+  <si>
+    <t>쌤 과학 알려주세요</t>
+  </si>
+  <si>
+    <t>쌤 반배정 언제나와여</t>
+  </si>
+  <si>
+    <t>하......</t>
+  </si>
+  <si>
+    <t>쌤은 아는게 머에요</t>
+  </si>
+  <si>
+    <t>태호쌤!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>아하~~~~~~~~</t>
+  </si>
+  <si>
+    <t>쌤 저 아세요?</t>
+  </si>
+  <si>
+    <t>인공지능 업데이트언제해여?</t>
+  </si>
+  <si>
+    <t>어이가업어가지고</t>
+  </si>
+  <si>
+    <t>외여????????????</t>
+  </si>
+  <si>
+    <t>쌤 머하세여?</t>
+  </si>
+  <si>
+    <t>누구세요?????</t>
+  </si>
+  <si>
+    <t>어쩌라고요~</t>
+  </si>
+  <si>
+    <t>어쩌라고여~</t>
+  </si>
+  <si>
+    <t>누구세여???????</t>
+  </si>
+  <si>
+    <t>쌤 보고싶어여~</t>
+  </si>
+  <si>
+    <t>보고싶어여~</t>
+  </si>
+  <si>
+    <t>시른데여....</t>
+  </si>
+  <si>
+    <t>보고싶어여|~~~~~</t>
+  </si>
+  <si>
+    <t>민태호가 누구에여</t>
+  </si>
+  <si>
+    <t>알아듣는게뭐에여</t>
+  </si>
+  <si>
+    <t>쌤 이번에 몇학년 하실거에여?</t>
+  </si>
+  <si>
+    <t>아하~~~~~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">민태호는 몇살인가여 </t>
+  </si>
+  <si>
+    <t>부른적업는데</t>
+  </si>
+  <si>
+    <t>왤케 못알아먹어요</t>
+  </si>
+  <si>
+    <t>아는게뭐에요</t>
+  </si>
+  <si>
+    <t>하...........</t>
+  </si>
+  <si>
+    <t>ㅡㅡ..........</t>
+  </si>
+  <si>
+    <t>쌤 저 보고싶죠</t>
+  </si>
+  <si>
+    <t>쌤 저 안보고싶으세여?</t>
+  </si>
+  <si>
+    <t>하.......</t>
+  </si>
+  <si>
+    <t>재미업네진짜</t>
+  </si>
+  <si>
+    <t>쌤 혜워니 아세여?</t>
+  </si>
+  <si>
+    <t>쌤 혜원이 아새여?</t>
+  </si>
+  <si>
+    <t>이상하게알아먹어여</t>
+  </si>
+  <si>
+    <t>와그러세여...</t>
+  </si>
+  <si>
+    <t>외그러세여~</t>
+  </si>
+  <si>
+    <t>혜워니 아새여?</t>
+  </si>
+  <si>
+    <t>민태호 선생님이 뭐하는지는 모르죠. 전 인공지능일 뿐인 걸요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 질문답변 인공지능 '언제나 깨어있는 민태호'입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미워하지 마세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일 망고 맛있죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>니가 지금 하고 있는 질문이요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 쌓인 데이터가 부족해서 모르는 게 많아요. 부디 너그럽게 봐주세요.</t>
+  </si>
+  <si>
+    <t>아직 쌓인 데이터가 부족해서 모르는 게 많아요. 부디 너그럽게 봐주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 2021년에 만들어진 인공지능이에요. 이제 1살이죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상상은 자유죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 아름다움의 기준은 사람마다 다른 거니까요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무리 인공지능이라도 그런 거까진 몰라요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 인공지능일 뿐이에요. 그런 일은 못해요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반편성은 2월 26일에 나와요.</t>
+  </si>
+  <si>
+    <t>반편성은 2월 26일에 나와요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 인공지능이라서 인공지능이랑만 친구해요. 사람은 몰라요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>절 만든 분은 민태호 선생님이에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저를 만든 분이에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 그래요? 필요할 때 불러주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 한숨을 쉬세요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 가는 날짜는 코로나 상황에 따라 다르겠죠? 선생님께 여쭤보세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학 변화가 일어날 때 화학식을 이용하여 화학 반응을 나타낸 겁니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구체적으로 어떤 걸 알고 싶어요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰라요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트는 매주 토요일에 하는데, 민태호씨가 바쁘면 못할 수도 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘 어쩌라고요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫음 말구요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아닌거 같은데</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재미없어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 그냥 인공지능인데 당연히 재미없죠. 재밌으려면 예능 프로그램이라도 보세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐가 문제죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 가끔은 그럴 때도 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕히 가세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 그러세요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 아직 모르는 게 많아서 그래요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성은이 아세여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성으니 아세여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성은 아세여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장혜원 아세여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>응.........</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌤 혜원이 아세여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">아니 진짜 어이가업네 </t>
-  </si>
-  <si>
-    <t>안녕하세요~</t>
-  </si>
-  <si>
-    <t>민태호씨는 몇살인가여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>언제나 깨어있는 민태호는 몇살인가요</t>
-  </si>
-  <si>
-    <t>언제나 깨어있는 민태호 나이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>성은이는 왜 예쁜가여?</t>
-  </si>
-  <si>
-    <t>성은이는 너무예뻐여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>민태호쌤은 제 남친이에여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>쌤 보고십에여</t>
-  </si>
-  <si>
-    <t>쌤 2021년에 2학년 맡아여?</t>
-  </si>
-  <si>
-    <t>3학년하새여</t>
-  </si>
-  <si>
-    <t>3학년 해주세여</t>
-  </si>
-  <si>
-    <t>개학 언제야</t>
-  </si>
-  <si>
-    <t>반편성 언제 나와</t>
-  </si>
-  <si>
-    <t>안녕하세여~</t>
-  </si>
-  <si>
-    <t>아 개학 언제해여~</t>
-  </si>
-  <si>
-    <t>쌤 저 아세여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>몇살이세여???????</t>
-  </si>
-  <si>
-    <t>쌤 이름이머에여</t>
-  </si>
-  <si>
-    <t>아는말이뭐야ㅑ도대채</t>
-  </si>
-  <si>
-    <t>하...............</t>
-  </si>
-  <si>
-    <t>민태호가 누군지아세여?</t>
-  </si>
-  <si>
-    <t>민태호는 몇살인가여</t>
-  </si>
-  <si>
-    <t>언제나 깨어있는 민태호는 몇살인가여</t>
-  </si>
-  <si>
-    <t>부른적업는데여</t>
-  </si>
-  <si>
-    <t>쌤 너무 가여워여</t>
-  </si>
-  <si>
-    <t>아니...하......</t>
-  </si>
-  <si>
-    <t>가여워요 쌤</t>
-  </si>
-  <si>
-    <t>태호쌤!!!!!!</t>
-  </si>
-  <si>
-    <t>언제나 깨어있는 민태호씨</t>
-  </si>
-  <si>
-    <t>부른적업너요</t>
-  </si>
-  <si>
-    <t>쌤 보고싶어여</t>
-  </si>
-  <si>
-    <t>학교언제가여?</t>
-  </si>
-  <si>
-    <t>개학언제해요?</t>
-  </si>
-  <si>
-    <t>쌤 혜워니 아새여?</t>
-  </si>
-  <si>
-    <t>과학진짜노잼</t>
-  </si>
-  <si>
-    <t>물질의 화학식</t>
-  </si>
-  <si>
-    <t>쌤 혜워니 아시냐고여</t>
-  </si>
-  <si>
-    <t>망고는 맛ㄱ있어</t>
-  </si>
-  <si>
-    <t>망고는 맛있어</t>
-  </si>
-  <si>
-    <t>망고 아세여?</t>
-  </si>
-  <si>
-    <t>민망고~~~~~~~~</t>
-  </si>
-  <si>
-    <t>망고 보고싶당</t>
-  </si>
-  <si>
-    <t>외여???????</t>
-  </si>
-  <si>
-    <t>외??????여??????</t>
-  </si>
-  <si>
-    <t>쌤 과학 알려주세요</t>
-  </si>
-  <si>
-    <t>쌤 반배정 언제나와여</t>
-  </si>
-  <si>
-    <t>하......</t>
-  </si>
-  <si>
-    <t>쌤은 아는게 머에요</t>
-  </si>
-  <si>
-    <t>태호쌤!!!!!!!!!!!!!!</t>
-  </si>
-  <si>
-    <t>아하~~~~~~~~</t>
-  </si>
-  <si>
-    <t>쌤 저 아세요?</t>
-  </si>
-  <si>
-    <t>인공지능 업데이트언제해여?</t>
-  </si>
-  <si>
-    <t>어이가업어가지고</t>
-  </si>
-  <si>
-    <t>외여????????????</t>
-  </si>
-  <si>
-    <t>쌤 머하세여?</t>
-  </si>
-  <si>
-    <t>누구세요?????</t>
-  </si>
-  <si>
-    <t>어쩌라고요~</t>
-  </si>
-  <si>
-    <t>어쩌라고여~</t>
-  </si>
-  <si>
-    <t>누구세여???????</t>
-  </si>
-  <si>
-    <t>쌤 보고싶어여~</t>
-  </si>
-  <si>
-    <t>보고싶어여~</t>
-  </si>
-  <si>
-    <t>시른데여....</t>
-  </si>
-  <si>
-    <t>보고싶어여|~~~~~</t>
-  </si>
-  <si>
-    <t>민태호가 누구에여</t>
-  </si>
-  <si>
-    <t>알아듣는게뭐에여</t>
-  </si>
-  <si>
-    <t>쌤 이번에 몇학년 하실거에여?</t>
-  </si>
-  <si>
-    <t>아하~~~~~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">민태호는 몇살인가여 </t>
-  </si>
-  <si>
-    <t>부른적업는데</t>
-  </si>
-  <si>
-    <t>왤케 못알아먹어요</t>
-  </si>
-  <si>
-    <t>아는게뭐에요</t>
-  </si>
-  <si>
-    <t>하...........</t>
-  </si>
-  <si>
-    <t>ㅡㅡ..........</t>
-  </si>
-  <si>
-    <t>쌤 저 보고싶죠</t>
-  </si>
-  <si>
-    <t>쌤 저 안보고싶으세여?</t>
-  </si>
-  <si>
-    <t>하.......</t>
-  </si>
-  <si>
-    <t>재미업네진짜</t>
-  </si>
-  <si>
-    <t>쌤 혜원이 아세여?</t>
-  </si>
-  <si>
-    <t>쌤 혜워니 아세여?</t>
-  </si>
-  <si>
-    <t>쌤 혜원이 아새여?</t>
-  </si>
-  <si>
-    <t>이상하게알아먹어여</t>
-  </si>
-  <si>
-    <t>와그러세여...</t>
-  </si>
-  <si>
-    <t>외그러세여~</t>
-  </si>
-  <si>
-    <t>혜워니 아새여?</t>
-  </si>
-  <si>
-    <t>민태호 선생님이 뭐하는지는 모르죠. 전 인공지능일 뿐인 걸요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 질문답변 인공지능 '언제나 깨어있는 민태호'입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미워하지 마세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일 망고 맛있죠.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>니가 지금 하고 있는 질문이요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직 쌓인 데이터가 부족해서 모르는 게 많아요. 부디 너그럽게 봐주세요.</t>
-  </si>
-  <si>
-    <t>아직 쌓인 데이터가 부족해서 모르는 게 많아요. 부디 너그럽게 봐주세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 2021년에 만들어진 인공지능이에요. 이제 1살이죠.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상상은 자유죠.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐, 아름다움의 기준은 사람마다 다른 거니까요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무리 인공지능이라도 그런 거까진 몰라요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 인공지능일 뿐이에요. 그런 일은 못해요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>반편성은 2월 26일에 나와요.</t>
-  </si>
-  <si>
-    <t>반편성은 2월 26일에 나와요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 인공지능이라서 인공지능이랑만 친구해요. 사람은 몰라요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>절 만든 분은 민태호 선생님이에요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저를 만든 분이에요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 그래요? 필요할 때 불러주세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 한숨을 쉬세요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 가는 날짜는 코로나 상황에 따라 다르겠죠? 선생님께 여쭤보세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>화학 변화가 일어날 때 화학식을 이용하여 화학 반응을 나타낸 겁니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구체적으로 어떤 걸 알고 싶어요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>몰라요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>업데이트는 매주 토요일에 하는데, 민태호씨가 바쁘면 못할 수도 있어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭘 어쩌라고요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>싫음 말구요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아닌거 같은데</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>재미없어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 그냥 인공지능인데 당연히 재미없죠. 재밌으려면 예능 프로그램이라도 보세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐가 문제죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐 가끔은 그럴 때도 있어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕히 가세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 그러세요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제가 아직 모르는 게 많아서 그래요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>성은이 아세여?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>성으니 아세여?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김성은 아세여?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장혜원 아세여?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>응.........</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3656,7 +3663,7 @@
         <v>260</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -3799,7 +3806,7 @@
         <v>263</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -3997,7 +4004,7 @@
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -4558,7 +4565,7 @@
         <v>151</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
@@ -4679,7 +4686,7 @@
         <v>475</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
@@ -5031,7 +5038,7 @@
         <v>497</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
@@ -5361,7 +5368,7 @@
         <v>515</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
@@ -5779,7 +5786,7 @@
         <v>50</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
@@ -5834,7 +5841,7 @@
         <v>545</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
@@ -6164,7 +6171,7 @@
         <v>124</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.4">
@@ -6813,7 +6820,7 @@
         <v>608</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.4">
@@ -6824,7 +6831,7 @@
         <v>609</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.4">
@@ -6835,7 +6842,7 @@
         <v>610</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.4">
@@ -6846,7 +6853,7 @@
         <v>611</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.4">
@@ -6857,7 +6864,7 @@
         <v>612</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.4">
@@ -6879,7 +6886,7 @@
         <v>614</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.4">
@@ -6890,7 +6897,7 @@
         <v>615</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.4">
@@ -6901,7 +6908,7 @@
         <v>616</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.4">
@@ -6912,18 +6919,18 @@
         <v>617</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A365" s="1">
         <v>364</v>
       </c>
-      <c r="B365" t="s">
-        <v>618</v>
+      <c r="B365" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.4">
@@ -6931,7 +6938,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>361</v>
@@ -6942,7 +6949,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>572</v>
@@ -6952,11 +6959,11 @@
       <c r="A368" s="1">
         <v>367</v>
       </c>
-      <c r="B368" t="s">
-        <v>621</v>
+      <c r="B368" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.4">
@@ -6964,21 +6971,21 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A370" s="1">
         <v>369</v>
       </c>
-      <c r="B370" t="s">
-        <v>623</v>
+      <c r="B370" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.4">
@@ -6986,29 +6993,29 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A372" s="1">
         <v>371</v>
       </c>
-      <c r="B372" t="s">
-        <v>625</v>
+      <c r="B372" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A373" s="1">
         <v>372</v>
       </c>
-      <c r="B373" t="s">
-        <v>626</v>
+      <c r="B373" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>509</v>
@@ -7019,10 +7026,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.4">
@@ -7030,10 +7037,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.4">
@@ -7041,10 +7048,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.4">
@@ -7052,7 +7059,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>603</v>
@@ -7063,10 +7070,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.4">
@@ -7074,7 +7081,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>361</v>
@@ -7085,7 +7092,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>603</v>
@@ -7096,21 +7103,21 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A382" s="1">
         <v>381</v>
       </c>
-      <c r="B382" t="s">
-        <v>635</v>
+      <c r="B382" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.4">
@@ -7118,10 +7125,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.4">
@@ -7129,10 +7136,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C384" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.4">
@@ -7140,7 +7147,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>456</v>
@@ -7151,10 +7158,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.4">
@@ -7162,7 +7169,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>361</v>
@@ -7173,7 +7180,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>572</v>
@@ -7184,10 +7191,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.4">
@@ -7195,10 +7202,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.4">
@@ -7206,7 +7213,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>449</v>
@@ -7217,10 +7224,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.4">
@@ -7228,7 +7235,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>449</v>
@@ -7239,7 +7246,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>354</v>
@@ -7250,7 +7257,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>359</v>
@@ -7261,10 +7268,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.4">
@@ -7272,7 +7279,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>509</v>
@@ -7283,10 +7290,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.4">
@@ -7294,7 +7301,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>603</v>
@@ -7305,10 +7312,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.4">
@@ -7316,7 +7323,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>481</v>
@@ -7327,10 +7334,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.4">
@@ -7338,10 +7345,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.4">
@@ -7349,10 +7356,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.4">
@@ -7360,10 +7367,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.4">
@@ -7371,7 +7378,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>534</v>
@@ -7382,7 +7389,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>532</v>
@@ -7393,7 +7400,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>509</v>
@@ -7404,7 +7411,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>363</v>
@@ -7415,7 +7422,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>363</v>
@@ -7426,10 +7433,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.4">
@@ -7437,10 +7444,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.4">
@@ -7448,7 +7455,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>456</v>
@@ -7459,10 +7466,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.4">
@@ -7470,7 +7477,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>354</v>
@@ -7481,7 +7488,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>424</v>
@@ -7492,10 +7499,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.4">
@@ -7503,10 +7510,10 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.4">
@@ -7514,10 +7521,10 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.4">
@@ -7525,7 +7532,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>363</v>
@@ -7536,7 +7543,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>517</v>
@@ -7547,7 +7554,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>361</v>
@@ -7558,7 +7565,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>555</v>
@@ -7569,10 +7576,10 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.4">
@@ -7580,10 +7587,10 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.4">
@@ -7591,7 +7598,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>555</v>
@@ -7602,7 +7609,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>509</v>
@@ -7613,7 +7620,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>509</v>
@@ -7624,10 +7631,10 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.4">
@@ -7635,7 +7642,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>509</v>
@@ -7646,10 +7653,10 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.4">
@@ -7657,10 +7664,10 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.4">
@@ -7668,10 +7675,10 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.4">
@@ -7679,10 +7686,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.4">
@@ -7690,7 +7697,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>424</v>
@@ -7701,7 +7708,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>572</v>
@@ -7712,10 +7719,10 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.4">
@@ -7723,10 +7730,10 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.4">
@@ -7734,10 +7741,10 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.4">
@@ -7745,10 +7752,10 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.4">
@@ -7756,7 +7763,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>456</v>
@@ -7767,10 +7774,10 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.4">
@@ -7778,10 +7785,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.4">
@@ -7789,10 +7796,10 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.4">
@@ -7800,10 +7807,10 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.4">
@@ -7811,10 +7818,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.4">
@@ -7822,7 +7829,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>456</v>
@@ -7833,21 +7840,21 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A449" s="1">
         <v>448</v>
       </c>
-      <c r="B449" t="s">
-        <v>696</v>
+      <c r="B449" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.4">
@@ -7855,10 +7862,10 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.4">
@@ -7866,10 +7873,10 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.4">
@@ -7877,10 +7884,10 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.4">
@@ -7888,10 +7895,10 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.4">
@@ -7899,10 +7906,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.4">
@@ -7910,10 +7917,10 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.4">
@@ -7921,10 +7928,10 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.4">
@@ -7932,10 +7939,10 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.4">
@@ -7943,10 +7950,10 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.4">
@@ -7954,10 +7961,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.4">
@@ -7965,10 +7972,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.4">
@@ -7976,10 +7983,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.4">
@@ -7987,10 +7994,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>

--- a/data/df2_20200917_edited.xlsx
+++ b/data/df2_20200917_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\PycharmProjects\faq_chatbot_sciecne_3rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFDB7EB-DD06-49FB-BA8F-835B9572F0A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FA1896-AFB3-4483-A3E0-11876BCEFD9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1135">
   <si>
     <t>구리의 질량을 증가시켜도 반응하는 구리와 산소의 질량비는 일정하다</t>
   </si>
@@ -2539,6 +2539,1342 @@
   </si>
   <si>
     <t>몇살이세여???????</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제나 깨어있는 민태호는 몇살인가여?</t>
+  </si>
+  <si>
+    <t>아니 몇살이냐구요</t>
+  </si>
+  <si>
+    <t>안불렀는대여</t>
+  </si>
+  <si>
+    <t>안 불렀어요.</t>
+  </si>
+  <si>
+    <t>언제나 깨어있는 민태호는 몇살 인가여?</t>
+  </si>
+  <si>
+    <t>혜워니 아세여</t>
+  </si>
+  <si>
+    <t>언제나 깨어있는 민태호는 몇살 인가여</t>
+  </si>
+  <si>
+    <t>혜원이 아세요?</t>
+  </si>
+  <si>
+    <t>안녕하새여~</t>
+  </si>
+  <si>
+    <t>안불렀는데요</t>
+  </si>
+  <si>
+    <t>안 불렀는데요</t>
+  </si>
+  <si>
+    <t>개학 언제애여?</t>
+  </si>
+  <si>
+    <t>반배정 언제 나와여?</t>
+  </si>
+  <si>
+    <t>반배정 언제</t>
+  </si>
+  <si>
+    <t>반편성 언제</t>
+  </si>
+  <si>
+    <t>반배정 언제 나와요</t>
+  </si>
+  <si>
+    <t>망망고 아새여</t>
+  </si>
+  <si>
+    <t>망망고 아세요?</t>
+  </si>
+  <si>
+    <t>망고망고망고</t>
+  </si>
+  <si>
+    <t>망고 망고 망고</t>
+  </si>
+  <si>
+    <t>반편성 언제나와</t>
+  </si>
+  <si>
+    <t>반편성 날짜</t>
+  </si>
+  <si>
+    <t>반편성 반편성</t>
+  </si>
+  <si>
+    <t>반편성 언제 나와여?</t>
+  </si>
+  <si>
+    <t>개학이 언제인가요?</t>
+  </si>
+  <si>
+    <t>혜원이 아세여?</t>
+  </si>
+  <si>
+    <t>혜원이 아새여</t>
+  </si>
+  <si>
+    <t>부른적 없어요</t>
+  </si>
+  <si>
+    <t>무슨 질문이여</t>
+  </si>
+  <si>
+    <t>안 불렀어요</t>
+  </si>
+  <si>
+    <t>망고 아세요?</t>
+  </si>
+  <si>
+    <t>너 만든사람 누구야</t>
+  </si>
+  <si>
+    <t>누구세요??</t>
+  </si>
+  <si>
+    <t>너 누구니?</t>
+  </si>
+  <si>
+    <t>민태호쌤안녕하세야</t>
+  </si>
+  <si>
+    <t>우와 반배정언제나와요</t>
+  </si>
+  <si>
+    <t>이상한소리만 하네여ㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>오 맞았어여!!!</t>
+  </si>
+  <si>
+    <t>Hello world</t>
+  </si>
+  <si>
+    <t>안녕하세요 태호쌤</t>
+  </si>
+  <si>
+    <t>안녕하다니깐요 반갑다는뜻이에여</t>
+  </si>
+  <si>
+    <t>네 .. 알겠어요</t>
+  </si>
+  <si>
+    <t>업데이트 빨리 해주세요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전 중앙고 학생인데요 </t>
+  </si>
+  <si>
+    <t>사람이 뭐냐</t>
+  </si>
+  <si>
+    <t>안녕.....</t>
+  </si>
+  <si>
+    <t>너 바보야 ???</t>
+  </si>
+  <si>
+    <t>무슨 말을 할 수 있나요?</t>
+  </si>
+  <si>
+    <t>너보다 이루다가 좋아</t>
+  </si>
+  <si>
+    <t>원소가 뭔가요?</t>
+  </si>
+  <si>
+    <t>태호쌤 오랜만이에요</t>
+  </si>
+  <si>
+    <t>방송부 기억하시나요</t>
+  </si>
+  <si>
+    <t>네 다음 바보민태호선생님</t>
+  </si>
+  <si>
+    <t>사랑하게 해주세요</t>
+  </si>
+  <si>
+    <t>바보 인공지능이네</t>
+  </si>
+  <si>
+    <t>동두천중앙고등학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그거 아닌데요?? </t>
+  </si>
+  <si>
+    <t>호킹복사이론</t>
+  </si>
+  <si>
+    <t>호킹복사이론이 뭔가요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스티븐호킹 </t>
+  </si>
+  <si>
+    <t>속도랑 속력의 차이가 뭔가요</t>
+  </si>
+  <si>
+    <t>너 민태호쌤이지 다 알아</t>
+  </si>
+  <si>
+    <t>초끈이론 설명</t>
+  </si>
+  <si>
+    <t>에너지란 무엇인가요</t>
+  </si>
+  <si>
+    <t>중력가속도 공식</t>
+  </si>
+  <si>
+    <t>관측 가능한 우주의 크기는 얼마정도 되나요</t>
+  </si>
+  <si>
+    <t>열량이 무엇인가요</t>
+  </si>
+  <si>
+    <t>전도가 무엇인가요</t>
+  </si>
+  <si>
+    <t>무엇인가요?</t>
+  </si>
+  <si>
+    <t>쌤 뭐하세요</t>
+  </si>
+  <si>
+    <t>쌤 왜 이상한말투써요</t>
+  </si>
+  <si>
+    <t>위치에너지 알려주세요</t>
+  </si>
+  <si>
+    <t>쌤 이루다 따라하세요?</t>
+  </si>
+  <si>
+    <t>돌림힘 알려주세요</t>
+  </si>
+  <si>
+    <t>너는 물리학을 아니??</t>
+  </si>
+  <si>
+    <t>중력이 뭔가요</t>
+  </si>
+  <si>
+    <t>만류인력이 뭔가요</t>
+  </si>
+  <si>
+    <t>관성의법칙을 설명해줘</t>
+  </si>
+  <si>
+    <t>질량이 무엇인가요</t>
+  </si>
+  <si>
+    <t>우주의탄생은?</t>
+  </si>
+  <si>
+    <t>질량이 곧 에너지인가요?</t>
+  </si>
+  <si>
+    <t>안녕하세여~~~~</t>
+  </si>
+  <si>
+    <t>왤케 말을 못알아들으세요?</t>
+  </si>
+  <si>
+    <t>태호쌤!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>과학에있는 모든 공식 말해보세요</t>
+  </si>
+  <si>
+    <t>좋아하는 연예인 은</t>
+  </si>
+  <si>
+    <t>민태호쌤 바보^^</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인공지능 맞아요..? 쌤이죠;;;;?</t>
+  </si>
+  <si>
+    <t>쌤 과학밖에 몰라요?</t>
+  </si>
+  <si>
+    <t>쌤 보고싶다고여</t>
+  </si>
+  <si>
+    <t>야 이놈아 대답을 해</t>
+  </si>
+  <si>
+    <t>성으니 아세여?</t>
+  </si>
+  <si>
+    <t>성으니 아세여</t>
+  </si>
+  <si>
+    <t>성은이 아세여?</t>
+  </si>
+  <si>
+    <t>김성은 아세여?</t>
+  </si>
+  <si>
+    <t>쌤 머하세여?????</t>
+  </si>
+  <si>
+    <t>쌤 저 심심해여</t>
+  </si>
+  <si>
+    <t>비가 오는날 레이저를 하늘로 쏘면 빛은 직진하니까 우주로 뚫고 나가나요 아니면 굴절돼서 지구 안을 빙빙 도나요</t>
+  </si>
+  <si>
+    <t>성으니가 누군지 아니?</t>
+  </si>
+  <si>
+    <t>거 뭐야 반배정 언제나와요?</t>
+  </si>
+  <si>
+    <t>태호쌤 보고싶은데 언제 볼 수 있어여 ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>철의 녹는점은 몇도</t>
+  </si>
+  <si>
+    <t>철의 녹는점은 몇도에요?</t>
+  </si>
+  <si>
+    <t>? 쌤 개띠꺼우시네요</t>
+  </si>
+  <si>
+    <t>김성은 아세요?</t>
+  </si>
+  <si>
+    <t>반배정 언제나와요?</t>
+  </si>
+  <si>
+    <t>니가 제일 가여워요</t>
+  </si>
+  <si>
+    <t>철의 녹는점 몇도에요?</t>
+  </si>
+  <si>
+    <t>대답해주시죠 슨생님</t>
+  </si>
+  <si>
+    <t>네..? 인사한건데여</t>
+  </si>
+  <si>
+    <t>저 과학 완전시러여</t>
+  </si>
+  <si>
+    <t>아 똥 마렵다</t>
+  </si>
+  <si>
+    <t>쌤 너무 시러여</t>
+  </si>
+  <si>
+    <t>똥 마렵다고요</t>
+  </si>
+  <si>
+    <t>쌤 몇살이세여</t>
+  </si>
+  <si>
+    <t>아잇 어음 푸르르</t>
+  </si>
+  <si>
+    <t>내?????????</t>
+  </si>
+  <si>
+    <t>안녕하세요 선생님</t>
+  </si>
+  <si>
+    <t>외?????????여??????</t>
+  </si>
+  <si>
+    <t>쌤 중흥중 싫죠</t>
+  </si>
+  <si>
+    <t>쌤 키 몇이에요?</t>
+  </si>
+  <si>
+    <t>쌤 키 몇이냐고여???????</t>
+  </si>
+  <si>
+    <t>쌤 키 170안넘죠</t>
+  </si>
+  <si>
+    <t>부정을 못하네</t>
+  </si>
+  <si>
+    <t>쌤 혜원이 아새요?</t>
+  </si>
+  <si>
+    <t>부른 적 없는데</t>
+  </si>
+  <si>
+    <t>안 불렀다고</t>
+  </si>
+  <si>
+    <t>테호쌤 아세요?</t>
+  </si>
+  <si>
+    <t>부른적없는데</t>
+  </si>
+  <si>
+    <t>무슨 질문?</t>
+  </si>
+  <si>
+    <t>?무엇 쌤 뭐하세여</t>
+  </si>
+  <si>
+    <t>안녕하세요???????</t>
+  </si>
+  <si>
+    <t>태호쌤은 왜 귀여울까여?</t>
+  </si>
+  <si>
+    <t>태호쌤이랑 말투 비슷하세여</t>
+  </si>
+  <si>
+    <t>슨상님 안녕하십니까</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소금의 녹는점은 몇도에여? </t>
+  </si>
+  <si>
+    <t>쌤 저 올해 2학년 됐는데 과학 망한거 같습니다 어떻게</t>
+  </si>
+  <si>
+    <t xml:space="preserve">철의 원자번호 </t>
+  </si>
+  <si>
+    <t>쌤 사랑해요</t>
+  </si>
+  <si>
+    <t>플랑크상수에 대해 알려주세요</t>
+  </si>
+  <si>
+    <t>쌤 군대썰 좀 풀어주세요</t>
+  </si>
+  <si>
+    <t>쌤 보고싶어요</t>
+  </si>
+  <si>
+    <t>쌤 과학 노잼이에요</t>
+  </si>
+  <si>
+    <t>과학이 싫고 쌤이 좋습니다</t>
+  </si>
+  <si>
+    <t>할수 있는게 뭐야?</t>
+  </si>
+  <si>
+    <t>양이온이 뭐야?</t>
+  </si>
+  <si>
+    <t>쌤 과학이 왜 과학이에요??</t>
+  </si>
+  <si>
+    <t>전자에 대해서 설명해줘</t>
+  </si>
+  <si>
+    <t>이해 안가뇨..</t>
+  </si>
+  <si>
+    <t>네? 이해 안간다니까뇨...?</t>
+  </si>
+  <si>
+    <t>물리가 머야</t>
+  </si>
+  <si>
+    <t>쌤 저 밥먹는데 너무 맛잇어요ㅠㅠ</t>
+  </si>
+  <si>
+    <t>자기소개 좀 해봐</t>
+  </si>
+  <si>
+    <t>쌤하고 말 안할래요</t>
+  </si>
+  <si>
+    <t>오늘 날씨 어때?</t>
+  </si>
+  <si>
+    <t>쌤 과학 노잼이에요 진심</t>
+  </si>
+  <si>
+    <t>안녕하세요 쌤</t>
+  </si>
+  <si>
+    <t>태호쌤 보고싶은 언제 볼 수 있어요</t>
+  </si>
+  <si>
+    <t>아잉뀨잉뀨뀨</t>
+  </si>
+  <si>
+    <t>저는 귀엽습니다</t>
+  </si>
+  <si>
+    <t>쌤 저 귀엽죠??</t>
+  </si>
+  <si>
+    <t>쌤 저 귀엽냐고요..</t>
+  </si>
+  <si>
+    <t>물의 밀도는 무엇인가요</t>
+  </si>
+  <si>
+    <t>물의 어는점은 무엇인가요</t>
+  </si>
+  <si>
+    <t>망고는맛있어~</t>
+  </si>
+  <si>
+    <t>언제나 깨어있는 민태호는 어떤 언어로 만들어졌나요</t>
+  </si>
+  <si>
+    <t>도마뱀 망고여</t>
+  </si>
+  <si>
+    <t>오오오오오오오</t>
+  </si>
+  <si>
+    <t>오늘날씨알려줘</t>
+  </si>
+  <si>
+    <t>박지민 존잘</t>
+  </si>
+  <si>
+    <t>왜대답을못해</t>
+  </si>
+  <si>
+    <t>복사가 뭔가요</t>
+  </si>
+  <si>
+    <t>당신은 누구십니까</t>
+  </si>
+  <si>
+    <t>민태호가 누구입니까</t>
+  </si>
+  <si>
+    <t>용해도가 무엇인가요</t>
+  </si>
+  <si>
+    <t>중앙고등학교</t>
+  </si>
+  <si>
+    <t>저기여 뭐하세요</t>
+  </si>
+  <si>
+    <t>저 문자에서 쌤 목소리가 들리는것같아요</t>
+  </si>
+  <si>
+    <t>물어봣는데 대답은 해주세요..</t>
+  </si>
+  <si>
+    <t>이름이 뭐에요?</t>
+  </si>
+  <si>
+    <t>빨간불이 뜨거워 파란불이 뜨거워?</t>
+  </si>
+  <si>
+    <t>태호쌤 안녕하세요~</t>
+  </si>
+  <si>
+    <t>안녕하세요 됐지?</t>
+  </si>
+  <si>
+    <t>인공지능으로 대화는 잘 되나요?</t>
+  </si>
+  <si>
+    <t>혹시 오늘은 밥 뭐 먹었어요</t>
+  </si>
+  <si>
+    <t>초콜릿 비빔밥은 선 넘지 않아요?</t>
+  </si>
+  <si>
+    <t>배고픈데 밥 해주세요</t>
+  </si>
+  <si>
+    <t>안녕하세요호</t>
+  </si>
+  <si>
+    <t>안녕하세요 ㅁ</t>
+  </si>
+  <si>
+    <t>중흥중 언제까지 있을거에요?</t>
+  </si>
+  <si>
+    <t>이거 어떻게 만듦?</t>
+  </si>
+  <si>
+    <t>3학년 담임 맡으시나요</t>
+  </si>
+  <si>
+    <t>민태호쌤 아니에요?</t>
+  </si>
+  <si>
+    <t>왜 만들었대요?</t>
+  </si>
+  <si>
+    <t>이름이뭐에요</t>
+  </si>
+  <si>
+    <t>뭔 개소리에요</t>
+  </si>
+  <si>
+    <t>빡대가리에요?</t>
+  </si>
+  <si>
+    <t>당신 이름이 뭐에요</t>
+  </si>
+  <si>
+    <t>여친있어요?</t>
+  </si>
+  <si>
+    <t>페르마의 정리를 알려주세요</t>
+  </si>
+  <si>
+    <t>김서연이 누구에요</t>
+  </si>
+  <si>
+    <t>아기는 어떻게 생기나요</t>
+  </si>
+  <si>
+    <t>롯데리아 케찹도둑 인가요</t>
+  </si>
+  <si>
+    <t>말 외 못 알아들어여ㅋ</t>
+  </si>
+  <si>
+    <t>? 쫌 이상한 말 하넹ㅕ</t>
+  </si>
+  <si>
+    <t>?? 심각하내여</t>
+  </si>
+  <si>
+    <t>토성의 고리를 이루고 있는 물질은 뭔가요?</t>
+  </si>
+  <si>
+    <t>언제 주무세요?</t>
+  </si>
+  <si>
+    <t>빅뱅이 일어났을 때 시발점이 된 곳으로부터 퍼져나가면서 관성이 작용했을텐데 현시대의 지구나 태양 같은 행성, 항성들은 어떻게 자리를 유지하고 있나요?</t>
+  </si>
+  <si>
+    <t>쌤 저 리플 100만원 샀는데 추락했어요</t>
+  </si>
+  <si>
+    <t>? -20% 찍었다구요</t>
+  </si>
+  <si>
+    <t>비트코인하다가 40만원 공준분해됐어요</t>
+  </si>
+  <si>
+    <t>오늘 몇도야</t>
+  </si>
+  <si>
+    <t>너 아는 게 뭐야?</t>
+  </si>
+  <si>
+    <t>내가 뭐가 가여워??</t>
+  </si>
+  <si>
+    <t>이거 쌤이죠 ; 인공지능일 리가 없는데</t>
+  </si>
+  <si>
+    <t>저녁 뭐 먹을까요</t>
+  </si>
+  <si>
+    <t>다른 저녁 메뉴 추천해 주세요</t>
+  </si>
+  <si>
+    <t>저녁 뭐 먹을까요!!!!</t>
+  </si>
+  <si>
+    <t>민태호쌤 사랑해여</t>
+  </si>
+  <si>
+    <t>여친잇어여?</t>
+  </si>
+  <si>
+    <t>안녕하세요구르트</t>
+  </si>
+  <si>
+    <t>설레는말 해주세요</t>
+  </si>
+  <si>
+    <t>앙앙기기모모띠띠</t>
+  </si>
+  <si>
+    <t>사랑합니다 사랑해요</t>
+  </si>
+  <si>
+    <t>망고는 제남친이에여</t>
+  </si>
+  <si>
+    <t>민태호쌤 보고싶어여</t>
+  </si>
+  <si>
+    <t>사람은 왜 똥을싸요?</t>
+  </si>
+  <si>
+    <t>근데 사랑은 왜 똥을 싸나요?</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>너 이름 뭐임</t>
+  </si>
+  <si>
+    <t>업데이트 언제 하는데요</t>
+  </si>
+  <si>
+    <t>??????????</t>
+  </si>
+  <si>
+    <t>완전 민태호쌤이랑 말투가 또카태야</t>
+  </si>
+  <si>
+    <t>시리보다 멍청하네</t>
+  </si>
+  <si>
+    <t>기엽다고 너</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>저좀 도와줘요</t>
+  </si>
+  <si>
+    <t>과학 잘하고 싶어요</t>
+  </si>
+  <si>
+    <t>싸우자싸우자</t>
+  </si>
+  <si>
+    <t>뭐하고 있어?</t>
+  </si>
+  <si>
+    <t>과학적인 얘기 말고 다른 얘기하자!</t>
+  </si>
+  <si>
+    <t>물의 끓는점은 몇 도야?</t>
+  </si>
+  <si>
+    <t>쌤안녈하새여</t>
+  </si>
+  <si>
+    <t>쌤 이름이 머에여</t>
+  </si>
+  <si>
+    <t>저는 2021년 1월 20일에 태어났어요. 1살이죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부른적 없는데</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리집에 얹혀사는 도마뱀이에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?갑자기요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 알겠어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 뭐죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람은 호모 사피엔스입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네네네네네네</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 할 줄 아는 말은 많은데 질문을 못 알아들어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소는 물질을 이루는 기본 성분을 의미해요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구세요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바보 바보 바보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 인공지능일 뿐이에요. 그런 건 못해요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저도 모르는 게 많아요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스티븐 호킹은 1975년 블랙홀에서 복사선이 방출된다는 이론을 발표했어요. 블랙홀이 전부 빨아들이기만 하는 건 아니란 거죠. 아직 관측된 적은 없어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스티븐 호킹은 루게릭 병을 극복하고 천체물리학에서 많은 업적을 세운 위대한 물리학자입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도는 벡터고 속력은 스칼라입니다. 쉽게 말해 속도는 숫자와 방향을 포함하는 것, 속력은 숫자만 따지는 거죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 복잡한 문제는 선생님께 직접 여쭤보는 게 좋을 것 같아요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구의 중력가속도는 9.8m/s^2입니다. 만유인력 상수와 지구 질량, 지구 반지름으로 구할 수 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주의 반지름은 빛의 속도로 138억년을 가야 하는 거리라고 하죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문을 구체적으로 해주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전도는 직접 접촉을 통해 열을 전달하는 방식입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>열량이란 열 에너지의 양입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학에서 말하는 에너지는 일을 할 수 있게 해주는 능력을 의미해요. 단위는 J(줄)이죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 에너지는 질량x중력가속도x높이로 구할 수 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 누구죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌림힘은 회전축으로부터의 거리x힘의 크기xsin() 입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배운 것만 알아요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중력의 뜻은 2가지가 있어요. 뉴턴은 질량을 가진 물체가 다른 물체를 끌어당기는 힘이 중력이라고 했고, 아인슈타인은 질량에 의한 시공간 휘어짐의 결과가 중력이라고 했죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>심오한 질문이네요. 물리법칙의 시작이자 끝이라고 해둘게요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>만유인력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>만유인력은 중력이에요.</t>
+  </si>
+  <si>
+    <t>만유인력은 중력이에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관성 법칙이란 물체가 현재의 운동 상태를 유지하려는 성질입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주 탄생은 아직 밝혀지지 않았지만, 빅뱅으로 탄생했다는 게 학계의 주류 의견이죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 상대성 이론에 따른 질량은 에너지 그 자체에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관성 법칙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>호킹복사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 안녕하세여~~~. 질문답변 인공지능 '언제나 깨어있는 민태호'입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중력 가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 인공지능이라 좋아하는 연예인이 없어요. 민태호씨는 아이오아이의 소혜를 좋아한다고 하더라구요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 속력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>열량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>질량 에너지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 배운 것만 알아요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄송해여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄송하지 마세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌤 보고 싶어여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌤 보고 싶어요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 딱히 안 보고싶어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌤 보고싶어요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관성의 법칙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>심심하면 저한테 100번만 말 걸어주세요. 지금부터 시작!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기 중에서 빛의 산란이 일어나서 직진은 안 할 것 같은데요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>철의 녹는점은 1538℃입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 인공지능인데요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아뇨 니가 더 가여워요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>똥이란 소화가 끝난 음식물 찌꺼기를 항문을 통해 내보낸 것입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?뭐가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 말이에요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중흥중학교 좋아요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>키가 왜 궁금해요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 질문 하세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설레지 마세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랑크 상수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랑크상수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랑크 상수는 막스 플랑크가 발표한 물리학의 기본 상수에요. 양자역학에서 엄청 많이 쓰여요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 귀여운데요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>절 만든 분이 민태호씨니까요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소금의 녹는점은 801℃입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>철은 원소기호 Fe, 원자번호 26번입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌써부터 망했다고 생각하지 말고 열심히 해보세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자번호는 원자핵 속의 양성자 숫자를 의미해요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 인공지능이라 군대는 안 가요. 그리고 전 2021년생이라구요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자를 잃고 양전하를 띄는 게 양이온이에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자란 음전하를 띄는 입자입니다. 표준모형에선 렙톤에 해당하죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해가 잘 안 되면 선생님께 직접 연락주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양이온</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있게 드세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의 날씨는 맑거나 흐리거나 비가 올 수 있습니다. 강수 확률은 0~100%입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈뢰딩거의 고양이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈뢰딩거</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈뢰딩거는 바람둥이로 유명한 오스트리아의 물리학자입니다. 슈뢰딩거 방정식을 고안했고, 양자역학의 모순을 지적하는 슈뢰딩거의 고양이 사고 실험을 제안하기도 했죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뀨뀨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 밀도는 정확히 1입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 어는점은 0℃입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹는점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어는점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>끓는점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹는점이란 물질의 상태가 고체에서 액체로 변하는 온도입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어는점이란 물질의 상태가 액체에서 고체로 변하는 온도입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>끓는점이란 물질의 상태가 액체에서 기체로 변하는 온도입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>망고는 민태호가 키우는 도마뱀 이름입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 이름은 '언제나 깨어있는 민태호'입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 리눅스로 만들어졌어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사란 빛(전자기파)을 통해 열에너지가 방출되는 현상입니다.</t>
+  </si>
+  <si>
+    <t>복사란 빛(전자기파)을 통해 열에너지가 방출되는 현상입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용해도란 일정한 온도에서 일정한 양의 용매에 녹을 수 있는 용질의 최대의 양입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용해도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불은 온도가 낮을 수록 붉은 빛, 온도가 높을 수록 푸른 빛을 띕니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간불 파란불</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 아는 대화가 많이 없어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간불 파란불 차이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불 온도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>초콜릿 비빔밥 맛있는데요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>초콜릿 비빔밥이요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민태호 선생님이 저를 만들었어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 과학 질문답변 인공지능이에요. 근데 아직 대화 데이터가 너무 부족해요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 그냥 인공지능인데요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 어떻게 만들었어요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 어떻게 만든 건가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여친</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 몰라서 묻는 건가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데리아 싫어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토성은 태양계의 6번째 행성이에요. 얼음으로 된 고리가 있는데, 이 고리는 점점 사라지고 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토성 고리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 인공지능이라 언제나 깨어있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 자요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기소개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 얘기를 왜 인공지능한테 하세요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ㅋㅋㅋㅋㅋㅋㅋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 개웃기네</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 가여워라~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 말 쓰지 마세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>망고 잘 지내여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>망고는 과일이에요. 도마뱀 망고는 잘 살고 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 왜 똥을 싸냐고요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저를 만든 분이 민태호에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우왕 기여워요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 도움이 필요한가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>열심히 공부하세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학 잘 하려면 어떻게 해요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸우자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 과학 밖에 몰라요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 끓는점은 100℃입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 끓는점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 어는점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구는 태양계의 3번째 행성으로, 유일하게 생명체가 사는 행성입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구가 뭐야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇살이세여</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2908,10 +4244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C462"/>
+  <dimension ref="A1:C785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B462" sqref="B462"/>
+    <sheetView tabSelected="1" topLeftCell="A775" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B785" sqref="B785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8000,6 +9336,3559 @@
         <v>710</v>
       </c>
     </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A463" s="1">
+        <v>462</v>
+      </c>
+      <c r="B463" t="s">
+        <v>742</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A464" s="1">
+        <v>463</v>
+      </c>
+      <c r="B464" t="s">
+        <v>743</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A465" s="1">
+        <v>464</v>
+      </c>
+      <c r="B465" t="s">
+        <v>744</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A466" s="1">
+        <v>465</v>
+      </c>
+      <c r="B466" t="s">
+        <v>745</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A467" s="1">
+        <v>466</v>
+      </c>
+      <c r="B467" t="s">
+        <v>635</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A468" s="1">
+        <v>467</v>
+      </c>
+      <c r="B468" t="s">
+        <v>746</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A469" s="1">
+        <v>468</v>
+      </c>
+      <c r="B469" t="s">
+        <v>747</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A470" s="1">
+        <v>469</v>
+      </c>
+      <c r="B470" t="s">
+        <v>748</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A471" s="1">
+        <v>470</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A472" s="1">
+        <v>471</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A473" s="1">
+        <v>472</v>
+      </c>
+      <c r="B473" t="s">
+        <v>747</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A474" s="1">
+        <v>473</v>
+      </c>
+      <c r="B474" t="s">
+        <v>747</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A475" s="1">
+        <v>474</v>
+      </c>
+      <c r="B475" t="s">
+        <v>749</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A476" s="1">
+        <v>475</v>
+      </c>
+      <c r="B476" t="s">
+        <v>742</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A477" s="1">
+        <v>476</v>
+      </c>
+      <c r="B477" t="s">
+        <v>750</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A478" s="1">
+        <v>477</v>
+      </c>
+      <c r="B478" t="s">
+        <v>751</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A479" s="1">
+        <v>478</v>
+      </c>
+      <c r="B479" t="s">
+        <v>744</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A480" s="1">
+        <v>479</v>
+      </c>
+      <c r="B480" t="s">
+        <v>752</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A481" s="1">
+        <v>480</v>
+      </c>
+      <c r="B481" t="s">
+        <v>753</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A482" s="1">
+        <v>481</v>
+      </c>
+      <c r="B482" t="s">
+        <v>754</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A483" s="1">
+        <v>482</v>
+      </c>
+      <c r="B483" t="s">
+        <v>755</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A484" s="1">
+        <v>483</v>
+      </c>
+      <c r="B484" t="s">
+        <v>756</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A485" s="1">
+        <v>484</v>
+      </c>
+      <c r="B485" t="s">
+        <v>757</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A486" s="1">
+        <v>485</v>
+      </c>
+      <c r="B486" t="s">
+        <v>755</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A487" s="1">
+        <v>486</v>
+      </c>
+      <c r="B487" t="s">
+        <v>758</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A488" s="1">
+        <v>487</v>
+      </c>
+      <c r="B488" t="s">
+        <v>759</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A489" s="1">
+        <v>488</v>
+      </c>
+      <c r="B489" t="s">
+        <v>760</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A490" s="1">
+        <v>489</v>
+      </c>
+      <c r="B490" t="s">
+        <v>761</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A491" s="1">
+        <v>490</v>
+      </c>
+      <c r="B491" t="s">
+        <v>612</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A492" s="1">
+        <v>491</v>
+      </c>
+      <c r="B492" t="s">
+        <v>762</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A493" s="1">
+        <v>492</v>
+      </c>
+      <c r="B493" t="s">
+        <v>763</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A494" s="1">
+        <v>493</v>
+      </c>
+      <c r="B494" t="s">
+        <v>764</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A495" s="1">
+        <v>494</v>
+      </c>
+      <c r="B495" t="s">
+        <v>628</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A496" s="1">
+        <v>495</v>
+      </c>
+      <c r="B496" t="s">
+        <v>756</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A497" s="1">
+        <v>496</v>
+      </c>
+      <c r="B497" t="s">
+        <v>765</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A498" s="1">
+        <v>497</v>
+      </c>
+      <c r="B498" t="s">
+        <v>766</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A499" s="1">
+        <v>498</v>
+      </c>
+      <c r="B499" t="s">
+        <v>747</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A500" s="1">
+        <v>499</v>
+      </c>
+      <c r="B500" t="s">
+        <v>767</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A501" s="1">
+        <v>500</v>
+      </c>
+      <c r="B501" t="s">
+        <v>768</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A502" s="1">
+        <v>501</v>
+      </c>
+      <c r="B502" t="s">
+        <v>769</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A503" s="1">
+        <v>502</v>
+      </c>
+      <c r="B503" t="s">
+        <v>612</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A504" s="1">
+        <v>503</v>
+      </c>
+      <c r="B504" t="s">
+        <v>770</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A505" s="1">
+        <v>504</v>
+      </c>
+      <c r="B505" t="s">
+        <v>771</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A506" s="1">
+        <v>505</v>
+      </c>
+      <c r="B506" t="s">
+        <v>772</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A507" s="1">
+        <v>506</v>
+      </c>
+      <c r="B507" t="s">
+        <v>676</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A508" s="1">
+        <v>507</v>
+      </c>
+      <c r="B508" t="s">
+        <v>635</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A509" s="1">
+        <v>508</v>
+      </c>
+      <c r="B509" t="s">
+        <v>773</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A510" s="1">
+        <v>509</v>
+      </c>
+      <c r="B510" t="s">
+        <v>774</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A511" s="1">
+        <v>510</v>
+      </c>
+      <c r="B511" t="s">
+        <v>775</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A512" s="1">
+        <v>511</v>
+      </c>
+      <c r="B512" t="s">
+        <v>776</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A513" s="1">
+        <v>512</v>
+      </c>
+      <c r="B513" t="s">
+        <v>777</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A514" s="1">
+        <v>513</v>
+      </c>
+      <c r="B514" t="s">
+        <v>778</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A515" s="1">
+        <v>514</v>
+      </c>
+      <c r="B515" t="s">
+        <v>779</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A516" s="1">
+        <v>515</v>
+      </c>
+      <c r="B516" t="s">
+        <v>780</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A517" s="1">
+        <v>516</v>
+      </c>
+      <c r="B517" t="s">
+        <v>781</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A518" s="1">
+        <v>517</v>
+      </c>
+      <c r="B518" t="s">
+        <v>782</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A519" s="1">
+        <v>518</v>
+      </c>
+      <c r="B519" t="s">
+        <v>783</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A520" s="1">
+        <v>519</v>
+      </c>
+      <c r="B520" t="s">
+        <v>784</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A521" s="1">
+        <v>520</v>
+      </c>
+      <c r="B521" t="s">
+        <v>785</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="B522" t="s">
+        <v>786</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A523" s="1">
+        <v>522</v>
+      </c>
+      <c r="B523" t="s">
+        <v>787</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A524" s="1">
+        <v>523</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="B525" t="s">
+        <v>788</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" t="s">
+        <v>789</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="B527" t="s">
+        <v>790</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="B528" t="s">
+        <v>791</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" t="s">
+        <v>792</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A530" s="1">
+        <v>529</v>
+      </c>
+      <c r="B530" t="s">
+        <v>793</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A531" s="1">
+        <v>530</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A532" s="1">
+        <v>531</v>
+      </c>
+      <c r="B532" t="s">
+        <v>794</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A533" s="1">
+        <v>532</v>
+      </c>
+      <c r="B533" t="s">
+        <v>795</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A534" s="1">
+        <v>533</v>
+      </c>
+      <c r="B534" t="s">
+        <v>796</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A535" s="1">
+        <v>534</v>
+      </c>
+      <c r="B535" t="s">
+        <v>797</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A536" s="1">
+        <v>535</v>
+      </c>
+      <c r="B536" t="s">
+        <v>798</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A537" s="1">
+        <v>536</v>
+      </c>
+      <c r="B537" t="s">
+        <v>799</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="B538" t="s">
+        <v>800</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A539" s="1">
+        <v>538</v>
+      </c>
+      <c r="B539" t="s">
+        <v>801</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A540" s="1">
+        <v>539</v>
+      </c>
+      <c r="B540" t="s">
+        <v>802</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A541" s="1">
+        <v>540</v>
+      </c>
+      <c r="B541" t="s">
+        <v>803</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A542" s="1">
+        <v>541</v>
+      </c>
+      <c r="B542" t="s">
+        <v>804</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A543" s="1">
+        <v>542</v>
+      </c>
+      <c r="B543" t="s">
+        <v>805</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A544" s="1">
+        <v>543</v>
+      </c>
+      <c r="B544" t="s">
+        <v>806</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A545" s="1">
+        <v>544</v>
+      </c>
+      <c r="B545" t="s">
+        <v>807</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A546" s="1">
+        <v>545</v>
+      </c>
+      <c r="B546" t="s">
+        <v>808</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A547" s="1">
+        <v>546</v>
+      </c>
+      <c r="B547" t="s">
+        <v>809</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A548" s="1">
+        <v>547</v>
+      </c>
+      <c r="B548" t="s">
+        <v>810</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A549" s="1">
+        <v>548</v>
+      </c>
+      <c r="B549" t="s">
+        <v>811</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A550" s="1">
+        <v>549</v>
+      </c>
+      <c r="B550" t="s">
+        <v>812</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A551" s="1">
+        <v>550</v>
+      </c>
+      <c r="B551" t="s">
+        <v>813</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A552" s="1">
+        <v>551</v>
+      </c>
+      <c r="B552" t="s">
+        <v>814</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A553" s="1">
+        <v>552</v>
+      </c>
+      <c r="B553" t="s">
+        <v>815</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="B554" t="s">
+        <v>816</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A555" s="1">
+        <v>554</v>
+      </c>
+      <c r="B555" t="s">
+        <v>817</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556" t="s">
+        <v>818</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557" t="s">
+        <v>819</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558" t="s">
+        <v>820</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A559" s="1">
+        <v>558</v>
+      </c>
+      <c r="B559" t="s">
+        <v>821</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A560" s="1">
+        <v>559</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A561" s="1">
+        <v>560</v>
+      </c>
+      <c r="B561" t="s">
+        <v>822</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A562" s="1">
+        <v>561</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A563" s="1">
+        <v>562</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A564" s="1">
+        <v>563</v>
+      </c>
+      <c r="B564" t="s">
+        <v>618</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A565" s="1">
+        <v>564</v>
+      </c>
+      <c r="B565" t="s">
+        <v>823</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A566" s="1">
+        <v>565</v>
+      </c>
+      <c r="B566" t="s">
+        <v>824</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A567" s="1">
+        <v>566</v>
+      </c>
+      <c r="B567" t="s">
+        <v>825</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A568" s="1">
+        <v>567</v>
+      </c>
+      <c r="B568" t="s">
+        <v>643</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A569" s="1">
+        <v>568</v>
+      </c>
+      <c r="B569" t="s">
+        <v>826</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A570" s="1">
+        <v>569</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A571" s="1">
+        <v>570</v>
+      </c>
+      <c r="B571" t="s">
+        <v>827</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A572" s="1">
+        <v>571</v>
+      </c>
+      <c r="B572" t="s">
+        <v>828</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A573" s="1">
+        <v>572</v>
+      </c>
+      <c r="B573" t="s">
+        <v>829</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A574" s="1">
+        <v>573</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A575" s="1">
+        <v>574</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A576" s="1">
+        <v>575</v>
+      </c>
+      <c r="B576" t="s">
+        <v>830</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A577" s="1">
+        <v>576</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A578" s="1">
+        <v>577</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A579" s="1">
+        <v>578</v>
+      </c>
+      <c r="B579" t="s">
+        <v>831</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A580" s="1">
+        <v>579</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A581" s="1">
+        <v>580</v>
+      </c>
+      <c r="B581" t="s">
+        <v>643</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A582" s="1">
+        <v>581</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A583" s="1">
+        <v>582</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="B584" t="s">
+        <v>832</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A585" s="1">
+        <v>584</v>
+      </c>
+      <c r="B585" t="s">
+        <v>833</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A587" s="1">
+        <v>586</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A588" s="1">
+        <v>587</v>
+      </c>
+      <c r="B588" t="s">
+        <v>627</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A589" s="1">
+        <v>588</v>
+      </c>
+      <c r="B589" t="s">
+        <v>834</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A590" s="1">
+        <v>589</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A591" s="1">
+        <v>590</v>
+      </c>
+      <c r="B591" t="s">
+        <v>835</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A592" s="1">
+        <v>591</v>
+      </c>
+      <c r="B592" t="s">
+        <v>667</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A593" s="1">
+        <v>592</v>
+      </c>
+      <c r="B593" t="s">
+        <v>836</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A594" s="1">
+        <v>593</v>
+      </c>
+      <c r="B594" t="s">
+        <v>837</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A595" s="1">
+        <v>594</v>
+      </c>
+      <c r="B595" t="s">
+        <v>838</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A596" s="1">
+        <v>595</v>
+      </c>
+      <c r="B596" t="s">
+        <v>839</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A597" s="1">
+        <v>596</v>
+      </c>
+      <c r="B597" t="s">
+        <v>840</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A598" s="1">
+        <v>597</v>
+      </c>
+      <c r="B598" t="s">
+        <v>841</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A599" s="1">
+        <v>598</v>
+      </c>
+      <c r="B599" t="s">
+        <v>842</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A600" s="1">
+        <v>599</v>
+      </c>
+      <c r="B600" t="s">
+        <v>843</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A601" s="1">
+        <v>600</v>
+      </c>
+      <c r="B601" t="s">
+        <v>844</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A602" s="1">
+        <v>601</v>
+      </c>
+      <c r="B602" t="s">
+        <v>845</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A603" s="1">
+        <v>602</v>
+      </c>
+      <c r="B603" t="s">
+        <v>846</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A604" s="1">
+        <v>603</v>
+      </c>
+      <c r="B604" t="s">
+        <v>847</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A605" s="1">
+        <v>604</v>
+      </c>
+      <c r="B605" t="s">
+        <v>848</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A606" s="1">
+        <v>605</v>
+      </c>
+      <c r="B606" t="s">
+        <v>849</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A607" s="1">
+        <v>606</v>
+      </c>
+      <c r="B607" t="s">
+        <v>850</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A608" s="1">
+        <v>607</v>
+      </c>
+      <c r="B608" t="s">
+        <v>670</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A609" s="1">
+        <v>608</v>
+      </c>
+      <c r="B609" t="s">
+        <v>851</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A610" s="1">
+        <v>609</v>
+      </c>
+      <c r="B610" t="s">
+        <v>852</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A611" s="1">
+        <v>610</v>
+      </c>
+      <c r="B611" t="s">
+        <v>853</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A612" s="1">
+        <v>611</v>
+      </c>
+      <c r="B612" t="s">
+        <v>854</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A613" s="1">
+        <v>612</v>
+      </c>
+      <c r="B613" t="s">
+        <v>855</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A614" s="1">
+        <v>613</v>
+      </c>
+      <c r="B614" t="s">
+        <v>856</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A615" s="1">
+        <v>614</v>
+      </c>
+      <c r="B615" t="s">
+        <v>857</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A616" s="1">
+        <v>615</v>
+      </c>
+      <c r="B616" t="s">
+        <v>858</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A617" s="1">
+        <v>616</v>
+      </c>
+      <c r="B617" t="s">
+        <v>859</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A618" s="1">
+        <v>617</v>
+      </c>
+      <c r="B618" t="s">
+        <v>666</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A619" s="1">
+        <v>618</v>
+      </c>
+      <c r="B619" t="s">
+        <v>860</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A620" s="1">
+        <v>619</v>
+      </c>
+      <c r="B620" t="s">
+        <v>861</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A621" s="1">
+        <v>620</v>
+      </c>
+      <c r="B621" t="s">
+        <v>862</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A622" s="1">
+        <v>621</v>
+      </c>
+      <c r="B622" t="s">
+        <v>863</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A623" s="1">
+        <v>622</v>
+      </c>
+      <c r="B623" t="s">
+        <v>864</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A624" s="1">
+        <v>623</v>
+      </c>
+      <c r="B624" t="s">
+        <v>865</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A625" s="1">
+        <v>624</v>
+      </c>
+      <c r="B625" t="s">
+        <v>866</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A626" s="1">
+        <v>625</v>
+      </c>
+      <c r="B626" t="s">
+        <v>867</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A627" s="1">
+        <v>626</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A628" s="1">
+        <v>627</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A629" s="1">
+        <v>628</v>
+      </c>
+      <c r="B629" t="s">
+        <v>868</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A630" s="1">
+        <v>629</v>
+      </c>
+      <c r="B630" t="s">
+        <v>749</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A631" s="1">
+        <v>630</v>
+      </c>
+      <c r="B631" t="s">
+        <v>771</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A632" s="1">
+        <v>631</v>
+      </c>
+      <c r="B632" t="s">
+        <v>869</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A633" s="1">
+        <v>632</v>
+      </c>
+      <c r="B633" t="s">
+        <v>870</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A634" s="1">
+        <v>633</v>
+      </c>
+      <c r="B634" t="s">
+        <v>871</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A635" s="1">
+        <v>634</v>
+      </c>
+      <c r="B635" t="s">
+        <v>872</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A636" s="1">
+        <v>635</v>
+      </c>
+      <c r="B636" t="s">
+        <v>873</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A637" s="1">
+        <v>636</v>
+      </c>
+      <c r="B637" t="s">
+        <v>874</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A638" s="1">
+        <v>637</v>
+      </c>
+      <c r="B638" t="s">
+        <v>875</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A639" s="1">
+        <v>638</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A640" s="1">
+        <v>639</v>
+      </c>
+      <c r="B640" t="s">
+        <v>876</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A641" s="1">
+        <v>640</v>
+      </c>
+      <c r="B641" t="s">
+        <v>877</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A642" s="1">
+        <v>641</v>
+      </c>
+      <c r="B642" t="s">
+        <v>878</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A643" s="1">
+        <v>642</v>
+      </c>
+      <c r="B643" t="s">
+        <v>879</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A644" s="1">
+        <v>643</v>
+      </c>
+      <c r="B644" t="s">
+        <v>880</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A645" s="1">
+        <v>644</v>
+      </c>
+      <c r="B645" t="s">
+        <v>881</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A646" s="1">
+        <v>645</v>
+      </c>
+      <c r="B646" t="s">
+        <v>882</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A647" s="1">
+        <v>646</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A648" s="1">
+        <v>647</v>
+      </c>
+      <c r="B648" t="s">
+        <v>883</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A649" s="1">
+        <v>648</v>
+      </c>
+      <c r="B649" t="s">
+        <v>884</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A650" s="1">
+        <v>649</v>
+      </c>
+      <c r="B650" t="s">
+        <v>885</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A651" s="1">
+        <v>650</v>
+      </c>
+      <c r="B651" t="s">
+        <v>886</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A652" s="1">
+        <v>651</v>
+      </c>
+      <c r="B652" t="s">
+        <v>887</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A653" s="1">
+        <v>652</v>
+      </c>
+      <c r="B653" t="s">
+        <v>888</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A654" s="1">
+        <v>653</v>
+      </c>
+      <c r="B654" t="s">
+        <v>889</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A655" s="1">
+        <v>654</v>
+      </c>
+      <c r="B655" t="s">
+        <v>890</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A656" s="1">
+        <v>655</v>
+      </c>
+      <c r="B656" t="s">
+        <v>891</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A657" s="1">
+        <v>656</v>
+      </c>
+      <c r="B657" t="s">
+        <v>892</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A658" s="1">
+        <v>657</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A659" s="1">
+        <v>658</v>
+      </c>
+      <c r="B659" t="s">
+        <v>893</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A660" s="1">
+        <v>659</v>
+      </c>
+      <c r="B660" t="s">
+        <v>894</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A661" s="1">
+        <v>660</v>
+      </c>
+      <c r="B661" t="s">
+        <v>895</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A662" s="1">
+        <v>661</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A663" s="1">
+        <v>662</v>
+      </c>
+      <c r="B663" t="s">
+        <v>896</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A664" s="1">
+        <v>663</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A665" s="1">
+        <v>664</v>
+      </c>
+      <c r="B665" t="s">
+        <v>897</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A666" s="1">
+        <v>665</v>
+      </c>
+      <c r="B666" t="s">
+        <v>898</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A667" s="1">
+        <v>666</v>
+      </c>
+      <c r="B667" t="s">
+        <v>899</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A668" s="1">
+        <v>667</v>
+      </c>
+      <c r="B668" t="s">
+        <v>900</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A669" s="1">
+        <v>668</v>
+      </c>
+      <c r="B669" t="s">
+        <v>901</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A670" s="1">
+        <v>669</v>
+      </c>
+      <c r="B670" t="s">
+        <v>902</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A671" s="1">
+        <v>670</v>
+      </c>
+      <c r="B671" t="s">
+        <v>903</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A672" s="1">
+        <v>671</v>
+      </c>
+      <c r="B672" t="s">
+        <v>904</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A673" s="1">
+        <v>672</v>
+      </c>
+      <c r="B673" t="s">
+        <v>905</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A674" s="1">
+        <v>673</v>
+      </c>
+      <c r="B674" t="s">
+        <v>906</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A675" s="1">
+        <v>674</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A676" s="1">
+        <v>675</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A677" s="1">
+        <v>676</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A678" s="1">
+        <v>677</v>
+      </c>
+      <c r="B678" t="s">
+        <v>907</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A679" s="1">
+        <v>678</v>
+      </c>
+      <c r="B679" t="s">
+        <v>908</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A680" s="1">
+        <v>679</v>
+      </c>
+      <c r="B680" t="s">
+        <v>909</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A681" s="1">
+        <v>680</v>
+      </c>
+      <c r="B681" t="s">
+        <v>910</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A682" s="1">
+        <v>681</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A683" s="1">
+        <v>682</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A684" s="1">
+        <v>683</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A685" s="1">
+        <v>684</v>
+      </c>
+      <c r="B685" t="s">
+        <v>195</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A686" s="1">
+        <v>685</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A687" s="1">
+        <v>686</v>
+      </c>
+      <c r="B687" t="s">
+        <v>911</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A688" s="1">
+        <v>687</v>
+      </c>
+      <c r="B688" t="s">
+        <v>912</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A689" s="1">
+        <v>688</v>
+      </c>
+      <c r="B689" t="s">
+        <v>913</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A690" s="1">
+        <v>689</v>
+      </c>
+      <c r="B690" t="s">
+        <v>914</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A691" s="1">
+        <v>690</v>
+      </c>
+      <c r="B691" t="s">
+        <v>915</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A692" s="1">
+        <v>691</v>
+      </c>
+      <c r="B692" t="s">
+        <v>916</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A693" s="1">
+        <v>692</v>
+      </c>
+      <c r="B693" t="s">
+        <v>917</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A694" s="1">
+        <v>693</v>
+      </c>
+      <c r="B694" t="s">
+        <v>918</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A695" s="1">
+        <v>694</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A696" s="1">
+        <v>695</v>
+      </c>
+      <c r="B696" t="s">
+        <v>919</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A697" s="1">
+        <v>696</v>
+      </c>
+      <c r="B697" t="s">
+        <v>920</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A698" s="1">
+        <v>697</v>
+      </c>
+      <c r="B698" t="s">
+        <v>845</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A699" s="1">
+        <v>698</v>
+      </c>
+      <c r="B699" t="s">
+        <v>921</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A700" s="1">
+        <v>699</v>
+      </c>
+      <c r="B700" t="s">
+        <v>922</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A701" s="1">
+        <v>700</v>
+      </c>
+      <c r="B701" t="s">
+        <v>923</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A702" s="1">
+        <v>701</v>
+      </c>
+      <c r="B702" t="s">
+        <v>618</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A703" s="1">
+        <v>702</v>
+      </c>
+      <c r="B703" t="s">
+        <v>924</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A704" s="1">
+        <v>703</v>
+      </c>
+      <c r="B704" t="s">
+        <v>925</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A705" s="1">
+        <v>704</v>
+      </c>
+      <c r="B705" t="s">
+        <v>926</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A706" s="1">
+        <v>705</v>
+      </c>
+      <c r="B706" t="s">
+        <v>927</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A707" s="1">
+        <v>706</v>
+      </c>
+      <c r="B707" t="s">
+        <v>928</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A708" s="1">
+        <v>707</v>
+      </c>
+      <c r="B708" t="s">
+        <v>929</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A709" s="1">
+        <v>708</v>
+      </c>
+      <c r="B709" t="s">
+        <v>930</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A710" s="1">
+        <v>709</v>
+      </c>
+      <c r="B710" t="s">
+        <v>931</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A711" s="1">
+        <v>710</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A712" s="1">
+        <v>711</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A713" s="1">
+        <v>712</v>
+      </c>
+      <c r="B713" t="s">
+        <v>932</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A714" s="1">
+        <v>713</v>
+      </c>
+      <c r="B714" t="s">
+        <v>933</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A715" s="1">
+        <v>714</v>
+      </c>
+      <c r="B715" t="s">
+        <v>934</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A716" s="1">
+        <v>715</v>
+      </c>
+      <c r="B716" t="s">
+        <v>935</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A717" s="1">
+        <v>716</v>
+      </c>
+      <c r="B717" t="s">
+        <v>936</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A718" s="1">
+        <v>717</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A719" s="1">
+        <v>718</v>
+      </c>
+      <c r="B719" t="s">
+        <v>937</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A720" s="1">
+        <v>719</v>
+      </c>
+      <c r="B720" t="s">
+        <v>938</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A721" s="1">
+        <v>720</v>
+      </c>
+      <c r="B721" t="s">
+        <v>939</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A722" s="1">
+        <v>721</v>
+      </c>
+      <c r="B722" t="s">
+        <v>940</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A723" s="1">
+        <v>722</v>
+      </c>
+      <c r="B723" t="s">
+        <v>941</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A724" s="1">
+        <v>723</v>
+      </c>
+      <c r="B724" t="s">
+        <v>942</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A725" s="1">
+        <v>724</v>
+      </c>
+      <c r="B725" t="s">
+        <v>943</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A726" s="1">
+        <v>725</v>
+      </c>
+      <c r="B726" t="s">
+        <v>944</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A727" s="1">
+        <v>726</v>
+      </c>
+      <c r="B727" t="s">
+        <v>945</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A728" s="1">
+        <v>727</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A729" s="1">
+        <v>728</v>
+      </c>
+      <c r="B729" t="s">
+        <v>946</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A730" s="1">
+        <v>729</v>
+      </c>
+      <c r="B730" t="s">
+        <v>947</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A731" s="1">
+        <v>730</v>
+      </c>
+      <c r="B731" t="s">
+        <v>948</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A732" s="1">
+        <v>731</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A733" s="1">
+        <v>732</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A734" s="1">
+        <v>733</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A735" s="1">
+        <v>734</v>
+      </c>
+      <c r="B735" t="s">
+        <v>949</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A736" s="1">
+        <v>735</v>
+      </c>
+      <c r="B736" t="s">
+        <v>950</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A737" s="1">
+        <v>736</v>
+      </c>
+      <c r="B737" t="s">
+        <v>951</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A738" s="1">
+        <v>737</v>
+      </c>
+      <c r="B738" t="s">
+        <v>952</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A739" s="1">
+        <v>738</v>
+      </c>
+      <c r="B739" t="s">
+        <v>953</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A740" s="1">
+        <v>739</v>
+      </c>
+      <c r="B740" t="s">
+        <v>954</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A741" s="1">
+        <v>740</v>
+      </c>
+      <c r="B741" t="s">
+        <v>955</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A742" s="1">
+        <v>741</v>
+      </c>
+      <c r="B742" t="s">
+        <v>956</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A743" s="1">
+        <v>742</v>
+      </c>
+      <c r="B743" t="s">
+        <v>957</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A744" s="1">
+        <v>743</v>
+      </c>
+      <c r="B744" t="s">
+        <v>958</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A745" s="1">
+        <v>744</v>
+      </c>
+      <c r="B745" t="s">
+        <v>959</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A746" s="1">
+        <v>745</v>
+      </c>
+      <c r="B746" t="s">
+        <v>960</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A747" s="1">
+        <v>746</v>
+      </c>
+      <c r="B747" t="s">
+        <v>961</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A748" s="1">
+        <v>747</v>
+      </c>
+      <c r="B748" t="s">
+        <v>962</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A749" s="1">
+        <v>748</v>
+      </c>
+      <c r="B749" t="s">
+        <v>963</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A750" s="1">
+        <v>749</v>
+      </c>
+      <c r="B750" t="s">
+        <v>964</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A751" s="1">
+        <v>750</v>
+      </c>
+      <c r="B751" t="s">
+        <v>965</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A752" s="1">
+        <v>751</v>
+      </c>
+      <c r="B752" t="s">
+        <v>966</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A753" s="1">
+        <v>752</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A754" s="1">
+        <v>753</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A755" s="1">
+        <v>754</v>
+      </c>
+      <c r="B755" t="s">
+        <v>967</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A756" s="1">
+        <v>755</v>
+      </c>
+      <c r="B756" t="s">
+        <v>968</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A757" s="1">
+        <v>756</v>
+      </c>
+      <c r="B757" t="s">
+        <v>969</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A758" s="1">
+        <v>757</v>
+      </c>
+      <c r="B758" t="s">
+        <v>970</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A759" s="1">
+        <v>758</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A760" s="1">
+        <v>759</v>
+      </c>
+      <c r="B760" t="s">
+        <v>971</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A761" s="1">
+        <v>760</v>
+      </c>
+      <c r="B761" t="s">
+        <v>972</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A762" s="1">
+        <v>761</v>
+      </c>
+      <c r="B762" t="s">
+        <v>973</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A763" s="1">
+        <v>762</v>
+      </c>
+      <c r="B763" t="s">
+        <v>974</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A764" s="1">
+        <v>763</v>
+      </c>
+      <c r="B764" t="s">
+        <v>975</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A765" s="1">
+        <v>764</v>
+      </c>
+      <c r="B765" t="s">
+        <v>976</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A766" s="1">
+        <v>765</v>
+      </c>
+      <c r="B766" t="s">
+        <v>977</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A767" s="1">
+        <v>766</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A768" s="1">
+        <v>767</v>
+      </c>
+      <c r="B768" t="s">
+        <v>978</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A769" s="1">
+        <v>768</v>
+      </c>
+      <c r="B769" t="s">
+        <v>979</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A770" s="1">
+        <v>769</v>
+      </c>
+      <c r="B770" t="s">
+        <v>980</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A771" s="1">
+        <v>770</v>
+      </c>
+      <c r="B771" t="s">
+        <v>981</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A772" s="1">
+        <v>771</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A773" s="1">
+        <v>772</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A774" s="1">
+        <v>773</v>
+      </c>
+      <c r="B774" t="s">
+        <v>982</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A775" s="1">
+        <v>774</v>
+      </c>
+      <c r="B775" t="s">
+        <v>983</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A776" s="1">
+        <v>775</v>
+      </c>
+      <c r="B776" t="s">
+        <v>984</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A777" s="1">
+        <v>776</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A778" s="1">
+        <v>777</v>
+      </c>
+      <c r="B778" t="s">
+        <v>985</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A779" s="1">
+        <v>778</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A780" s="1">
+        <v>779</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A781" s="1">
+        <v>780</v>
+      </c>
+      <c r="B781" t="s">
+        <v>986</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A782" s="1">
+        <v>781</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A783" s="1">
+        <v>782</v>
+      </c>
+      <c r="B783" t="s">
+        <v>987</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A784" s="1">
+        <v>783</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A785" s="1">
+        <v>784</v>
+      </c>
+      <c r="B785" t="s">
+        <v>670</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/df2_20200917_edited.xlsx
+++ b/data/df2_20200917_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\PycharmProjects\faq_chatbot_sciecne_3rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BA8F7B-1C72-4406-A787-5073CE6C4118}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C638D246-1FCE-47A0-80B6-0104D6B1D0A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="1684">
   <si>
     <t>구리의 질량을 증가시켜도 반응하는 구리와 산소의 질량비는 일정하다</t>
   </si>
@@ -3423,10 +3423,6 @@
   </si>
   <si>
     <t>쌤 보고 싶어요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>난 딱히 안 보고싶어요.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4225,13 +4221,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>민태호 유튜브로 보세요. https://www.youtube.com/channel/UCcedWd24bYidKjtf0lulD7g</t>
-  </si>
-  <si>
-    <t>민태호 유튜브로 보세요. https://www.youtube.com/channel/UCcedWd24bYidKjtf0lulD7g</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>그럼 저한테 100번만 말 걸어주세요. 지금부터 시작!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4244,10 +4233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>그냥 민태호 유튜브로 보세요. https://www.youtube.com/channel/UCcedWd24bYidKjtf0lulD7g</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>왜 수은기둥의 크기가 커져도 높이는 76cm인가요?</t>
   </si>
   <si>
@@ -5707,13 +5692,16 @@
   <si>
     <t>등속운동에서는 힘의 크기가 0입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민태호 유튜브로 보세요.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5737,6 +5725,14 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -5773,19 +5769,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6077,7 +6076,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C1159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1147" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1149" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1159" sqref="B1159"/>
     </sheetView>
   </sheetViews>
@@ -8292,8 +8291,8 @@
       <c r="B201" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>1245</v>
+      <c r="C201" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
@@ -8358,8 +8357,8 @@
       <c r="B207" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>1244</v>
+      <c r="C207" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
@@ -8755,7 +8754,7 @@
         <v>158</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
@@ -10074,8 +10073,8 @@
       <c r="B363" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="C363" s="2" t="s">
-        <v>1244</v>
+      <c r="C363" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.4">
@@ -10338,8 +10337,8 @@
       <c r="B387" t="s">
         <v>625</v>
       </c>
-      <c r="C387" s="2" t="s">
-        <v>1244</v>
+      <c r="C387" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.4">
@@ -10459,8 +10458,8 @@
       <c r="B398" t="s">
         <v>636</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>1244</v>
+      <c r="C398" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.4">
@@ -10668,8 +10667,8 @@
       <c r="B417" t="s">
         <v>654</v>
       </c>
-      <c r="C417" s="2" t="s">
-        <v>1244</v>
+      <c r="C417" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.4">
@@ -10679,8 +10678,8 @@
       <c r="B418" t="s">
         <v>655</v>
       </c>
-      <c r="C418" s="2" t="s">
-        <v>1244</v>
+      <c r="C418" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.4">
@@ -10701,8 +10700,8 @@
       <c r="B420" t="s">
         <v>657</v>
       </c>
-      <c r="C420" s="2" t="s">
-        <v>1244</v>
+      <c r="C420" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.4">
@@ -12219,8 +12218,8 @@
       <c r="B558" t="s">
         <v>625</v>
       </c>
-      <c r="C558" s="2" t="s">
-        <v>1244</v>
+      <c r="C558" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.4">
@@ -12362,8 +12361,8 @@
       <c r="B571" t="s">
         <v>625</v>
       </c>
-      <c r="C571" s="2" t="s">
-        <v>1022</v>
+      <c r="C571" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.4">
@@ -12371,7 +12370,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>1005</v>
@@ -12384,8 +12383,8 @@
       <c r="B573" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="C573" s="2" t="s">
-        <v>1022</v>
+      <c r="C573" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.4">
@@ -12395,8 +12394,8 @@
       <c r="B574" t="s">
         <v>814</v>
       </c>
-      <c r="C574" s="2" t="s">
-        <v>1022</v>
+      <c r="C574" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.4">
@@ -12417,8 +12416,8 @@
       <c r="B576" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="C576" s="2" t="s">
-        <v>1022</v>
+      <c r="C576" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.4">
@@ -12426,10 +12425,10 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C577" s="2" t="s">
         <v>1022</v>
+      </c>
+      <c r="C577" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.4">
@@ -12459,7 +12458,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>350</v>
@@ -12528,7 +12527,7 @@
         <v>821</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.4">
@@ -12539,7 +12538,7 @@
         <v>822</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.4">
@@ -12571,8 +12570,8 @@
       <c r="B590" t="s">
         <v>825</v>
       </c>
-      <c r="C590" s="2" t="s">
-        <v>1244</v>
+      <c r="C590" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.4">
@@ -12583,7 +12582,7 @@
         <v>826</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.4">
@@ -12594,7 +12593,7 @@
         <v>827</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.4">
@@ -12605,7 +12604,7 @@
         <v>828</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.4">
@@ -12638,7 +12637,7 @@
         <v>831</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.4">
@@ -12649,7 +12648,7 @@
         <v>832</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.4">
@@ -12704,7 +12703,7 @@
         <v>836</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.4">
@@ -12726,7 +12725,7 @@
         <v>838</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.4">
@@ -12748,7 +12747,7 @@
         <v>840</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.4">
@@ -12759,7 +12758,7 @@
         <v>841</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.4">
@@ -12803,7 +12802,7 @@
         <v>844</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.4">
@@ -12814,7 +12813,7 @@
         <v>845</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.4">
@@ -12825,7 +12824,7 @@
         <v>846</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.4">
@@ -12836,7 +12835,7 @@
         <v>847</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.4">
@@ -12847,7 +12846,7 @@
         <v>848</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.4">
@@ -12869,7 +12868,7 @@
         <v>486</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.4">
@@ -12877,10 +12876,10 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C618" s="2" t="s">
         <v>1039</v>
-      </c>
-      <c r="C618" s="2" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.4">
@@ -12990,7 +12989,7 @@
         <v>857</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.4">
@@ -12998,10 +12997,10 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.4">
@@ -13012,7 +13011,7 @@
         <v>858</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.4">
@@ -13034,7 +13033,7 @@
         <v>860</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.4">
@@ -13045,7 +13044,7 @@
         <v>861</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.4">
@@ -13056,7 +13055,7 @@
         <v>862</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.4">
@@ -13078,7 +13077,7 @@
         <v>864</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.4">
@@ -13086,10 +13085,10 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C637" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="C637" s="2" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.4">
@@ -13100,7 +13099,7 @@
         <v>865</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.4">
@@ -13110,8 +13109,8 @@
       <c r="B639" t="s">
         <v>866</v>
       </c>
-      <c r="C639" s="2" t="s">
-        <v>1244</v>
+      <c r="C639" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.4">
@@ -13155,7 +13154,7 @@
         <v>870</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.4">
@@ -13177,7 +13176,7 @@
         <v>872</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.4">
@@ -13188,7 +13187,7 @@
         <v>873</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.4">
@@ -13199,7 +13198,7 @@
         <v>874</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.4">
@@ -13207,10 +13206,10 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.4">
@@ -13232,7 +13231,7 @@
         <v>876</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.4">
@@ -13251,10 +13250,10 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.4">
@@ -13273,10 +13272,10 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C654" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="C654" s="2" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.4">
@@ -13287,7 +13286,7 @@
         <v>879</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.4">
@@ -13319,8 +13318,8 @@
       <c r="B658" t="s">
         <v>882</v>
       </c>
-      <c r="C658" s="2" t="s">
-        <v>1244</v>
+      <c r="C658" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.4">
@@ -13331,7 +13330,7 @@
         <v>883</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.4">
@@ -13342,7 +13341,7 @@
         <v>884</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.4">
@@ -13353,7 +13352,7 @@
         <v>885</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.4">
@@ -13364,7 +13363,7 @@
         <v>886</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.4">
@@ -13375,7 +13374,7 @@
         <v>887</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.4">
@@ -13386,7 +13385,7 @@
         <v>888</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.4">
@@ -13394,10 +13393,10 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.4">
@@ -13405,10 +13404,10 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.4">
@@ -13416,10 +13415,10 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.4">
@@ -13441,7 +13440,7 @@
         <v>890</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.4">
@@ -13452,7 +13451,7 @@
         <v>891</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.4">
@@ -13463,7 +13462,7 @@
         <v>892</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.4">
@@ -13471,10 +13470,10 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C672" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.4">
@@ -13482,10 +13481,10 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.4">
@@ -13493,10 +13492,10 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.4">
@@ -13507,7 +13506,7 @@
         <v>188</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.4">
@@ -13515,10 +13514,10 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.4">
@@ -13529,7 +13528,7 @@
         <v>893</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.4">
@@ -13562,7 +13561,7 @@
         <v>896</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.4">
@@ -13573,7 +13572,7 @@
         <v>897</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.4">
@@ -13595,7 +13594,7 @@
         <v>899</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.4">
@@ -13614,10 +13613,10 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.4">
@@ -13650,7 +13649,7 @@
         <v>827</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.4">
@@ -13672,7 +13671,7 @@
         <v>904</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.4">
@@ -13683,7 +13682,7 @@
         <v>905</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.4">
@@ -13727,7 +13726,7 @@
         <v>908</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.4">
@@ -13738,7 +13737,7 @@
         <v>909</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.4">
@@ -13749,7 +13748,7 @@
         <v>910</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.4">
@@ -13790,10 +13789,10 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.4">
@@ -13801,10 +13800,10 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.4">
@@ -13815,7 +13814,7 @@
         <v>914</v>
       </c>
       <c r="C703" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.4">
@@ -13826,7 +13825,7 @@
         <v>915</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.4">
@@ -13859,7 +13858,7 @@
         <v>918</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.4">
@@ -13867,10 +13866,10 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.4">
@@ -13881,7 +13880,7 @@
         <v>919</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.4">
@@ -13914,7 +13913,7 @@
         <v>922</v>
       </c>
       <c r="C712" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.4">
@@ -13925,7 +13924,7 @@
         <v>923</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.4">
@@ -13958,7 +13957,7 @@
         <v>926</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.4">
@@ -13969,7 +13968,7 @@
         <v>927</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.4">
@@ -13977,10 +13976,10 @@
         <v>717</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C718" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.4">
@@ -14021,10 +14020,10 @@
         <v>721</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.4">
@@ -14032,10 +14031,10 @@
         <v>722</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.4">
@@ -14043,10 +14042,10 @@
         <v>723</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.4">
@@ -14057,7 +14056,7 @@
         <v>931</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.4">
@@ -14068,7 +14067,7 @@
         <v>932</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.4">
@@ -14090,7 +14089,7 @@
         <v>934</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.4">
@@ -14101,7 +14100,7 @@
         <v>935</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.4">
@@ -14112,7 +14111,7 @@
         <v>936</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.4">
@@ -14123,7 +14122,7 @@
         <v>937</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.4">
@@ -14145,7 +14144,7 @@
         <v>939</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.4">
@@ -14211,7 +14210,7 @@
         <v>945</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.4">
@@ -14233,7 +14232,7 @@
         <v>947</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.4">
@@ -14244,7 +14243,7 @@
         <v>948</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.4">
@@ -14252,10 +14251,10 @@
         <v>742</v>
       </c>
       <c r="B743" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C743" s="2" t="s">
         <v>1100</v>
-      </c>
-      <c r="C743" s="2" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.4">
@@ -14263,7 +14262,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>565</v>
@@ -14298,8 +14297,8 @@
       <c r="B747" t="s">
         <v>951</v>
       </c>
-      <c r="C747" s="2" t="s">
-        <v>1244</v>
+      <c r="C747" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.4">
@@ -14310,7 +14309,7 @@
         <v>952</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.4">
@@ -14318,10 +14317,10 @@
         <v>748</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.4">
@@ -14332,7 +14331,7 @@
         <v>953</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.4">
@@ -14354,7 +14353,7 @@
         <v>955</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.4">
@@ -14376,7 +14375,7 @@
         <v>957</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.4">
@@ -14387,7 +14386,7 @@
         <v>958</v>
       </c>
       <c r="C755" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.4">
@@ -14406,10 +14405,10 @@
         <v>756</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.4">
@@ -14420,7 +14419,7 @@
         <v>960</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.4">
@@ -14442,7 +14441,7 @@
         <v>962</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.4">
@@ -14453,7 +14452,7 @@
         <v>963</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.4">
@@ -14461,10 +14460,10 @@
         <v>761</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.4">
@@ -14472,10 +14471,10 @@
         <v>762</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.4">
@@ -14486,7 +14485,7 @@
         <v>964</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.4">
@@ -14508,7 +14507,7 @@
         <v>966</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.4">
@@ -14516,10 +14515,10 @@
         <v>766</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.4">
@@ -14530,7 +14529,7 @@
         <v>967</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.4">
@@ -14538,10 +14537,10 @@
         <v>768</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.4">
@@ -14549,10 +14548,10 @@
         <v>769</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.4">
@@ -14571,10 +14570,10 @@
         <v>771</v>
       </c>
       <c r="B772" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C772" s="2" t="s">
         <v>1113</v>
-      </c>
-      <c r="C772" s="2" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.4">
@@ -14585,7 +14584,7 @@
         <v>969</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.4">
@@ -14593,7 +14592,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>970</v>
@@ -14615,10 +14614,10 @@
         <v>775</v>
       </c>
       <c r="B776" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.4">
@@ -14626,10 +14625,10 @@
         <v>776</v>
       </c>
       <c r="B777" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.4">
@@ -14637,10 +14636,10 @@
         <v>777</v>
       </c>
       <c r="B778" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.4">
@@ -14648,10 +14647,10 @@
         <v>778</v>
       </c>
       <c r="B779" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.4">
@@ -14659,10 +14658,10 @@
         <v>779</v>
       </c>
       <c r="B780" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.4">
@@ -14670,7 +14669,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C781" s="2" t="s">
         <v>986</v>
@@ -14681,7 +14680,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>986</v>
@@ -14692,7 +14691,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>995</v>
@@ -14703,7 +14702,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>995</v>
@@ -14714,7 +14713,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C785" s="2" t="s">
         <v>994</v>
@@ -14725,10 +14724,10 @@
         <v>785</v>
       </c>
       <c r="B786" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C786" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.4">
@@ -14736,10 +14735,10 @@
         <v>786</v>
       </c>
       <c r="B787" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.4">
@@ -14747,10 +14746,10 @@
         <v>787</v>
       </c>
       <c r="B788" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.4">
@@ -14758,7 +14757,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C789" s="2" t="s">
         <v>582</v>
@@ -14780,7 +14779,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>692</v>
@@ -14813,7 +14812,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>692</v>
@@ -14824,7 +14823,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>692</v>
@@ -14835,10 +14834,10 @@
         <v>795</v>
       </c>
       <c r="B796" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.4">
@@ -14846,7 +14845,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>995</v>
@@ -14857,7 +14856,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C798" s="2" t="s">
         <v>994</v>
@@ -14868,7 +14867,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C799" s="2" t="s">
         <v>994</v>
@@ -14879,7 +14878,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C800" s="2" t="s">
         <v>1007</v>
@@ -14890,10 +14889,10 @@
         <v>800</v>
       </c>
       <c r="B801" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.4">
@@ -14901,7 +14900,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C802" s="2" t="s">
         <v>995</v>
@@ -14912,10 +14911,10 @@
         <v>802</v>
       </c>
       <c r="B803" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.4">
@@ -14923,10 +14922,10 @@
         <v>803</v>
       </c>
       <c r="B804" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.4">
@@ -14934,7 +14933,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>1004</v>
@@ -14945,7 +14944,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>1000</v>
@@ -14956,10 +14955,10 @@
         <v>806</v>
       </c>
       <c r="B807" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.4">
@@ -14967,7 +14966,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>350</v>
@@ -14978,10 +14977,10 @@
         <v>808</v>
       </c>
       <c r="B809" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.4">
@@ -14989,10 +14988,10 @@
         <v>809</v>
       </c>
       <c r="B810" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.4">
@@ -15000,7 +14999,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>995</v>
@@ -15011,10 +15010,10 @@
         <v>811</v>
       </c>
       <c r="B812" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C812" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.4">
@@ -15022,10 +15021,10 @@
         <v>812</v>
       </c>
       <c r="B813" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.4">
@@ -15033,7 +15032,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C814" s="2" t="s">
         <v>1000</v>
@@ -15044,7 +15043,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C815" s="2" t="s">
         <v>1007</v>
@@ -15055,7 +15054,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C816" s="2" t="s">
         <v>1001</v>
@@ -15066,7 +15065,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>1000</v>
@@ -15077,7 +15076,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>1004</v>
@@ -15088,7 +15087,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>988</v>
@@ -15099,7 +15098,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>1004</v>
@@ -15110,7 +15109,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>988</v>
@@ -15121,7 +15120,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>1001</v>
@@ -15132,7 +15131,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C823" s="2" t="s">
         <v>1004</v>
@@ -15154,10 +15153,10 @@
         <v>824</v>
       </c>
       <c r="B825" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.4">
@@ -15165,10 +15164,10 @@
         <v>825</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.4">
@@ -15176,10 +15175,10 @@
         <v>826</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C827" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.4">
@@ -15190,7 +15189,7 @@
         <v>832</v>
       </c>
       <c r="C828" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.4">
@@ -15198,10 +15197,10 @@
         <v>828</v>
       </c>
       <c r="B829" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C829" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.4">
@@ -15209,10 +15208,10 @@
         <v>829</v>
       </c>
       <c r="B830" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C830" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.4">
@@ -15220,7 +15219,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C831" s="2" t="s">
         <v>694</v>
@@ -15231,10 +15230,10 @@
         <v>831</v>
       </c>
       <c r="B832" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.4">
@@ -15244,8 +15243,8 @@
       <c r="B833" t="s">
         <v>951</v>
       </c>
-      <c r="C833" s="2" t="s">
-        <v>1245</v>
+      <c r="C833" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.4">
@@ -15253,10 +15252,10 @@
         <v>833</v>
       </c>
       <c r="B834" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.4">
@@ -15264,10 +15263,10 @@
         <v>834</v>
       </c>
       <c r="B835" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C835" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.4">
@@ -15275,10 +15274,10 @@
         <v>835</v>
       </c>
       <c r="B836" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C836" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.4">
@@ -15286,10 +15285,10 @@
         <v>836</v>
       </c>
       <c r="B837" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C837" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.4">
@@ -15297,10 +15296,10 @@
         <v>837</v>
       </c>
       <c r="B838" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C838" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.4">
@@ -15308,7 +15307,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C839" s="2" t="s">
         <v>1019</v>
@@ -15319,7 +15318,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C840" s="2" t="s">
         <v>565</v>
@@ -15330,7 +15329,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C841" s="2" t="s">
         <v>565</v>
@@ -15363,10 +15362,10 @@
         <v>843</v>
       </c>
       <c r="B844" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C844" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.4">
@@ -15374,10 +15373,10 @@
         <v>844</v>
       </c>
       <c r="B845" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C845" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.4">
@@ -15385,10 +15384,10 @@
         <v>845</v>
       </c>
       <c r="B846" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C846" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.4">
@@ -15396,7 +15395,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>386</v>
@@ -15407,10 +15406,10 @@
         <v>847</v>
       </c>
       <c r="B848" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C848" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.4">
@@ -15418,10 +15417,10 @@
         <v>848</v>
       </c>
       <c r="B849" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C849" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.4">
@@ -15429,10 +15428,10 @@
         <v>849</v>
       </c>
       <c r="B850" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C850" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.4">
@@ -15440,10 +15439,10 @@
         <v>850</v>
       </c>
       <c r="B851" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C851" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.4">
@@ -15451,7 +15450,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C852" s="2" t="s">
         <v>565</v>
@@ -15462,10 +15461,10 @@
         <v>852</v>
       </c>
       <c r="B853" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C853" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.4">
@@ -15473,10 +15472,10 @@
         <v>853</v>
       </c>
       <c r="B854" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C854" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.4">
@@ -15484,10 +15483,10 @@
         <v>854</v>
       </c>
       <c r="B855" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C855" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.4">
@@ -15495,10 +15494,10 @@
         <v>855</v>
       </c>
       <c r="B856" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C856" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.4">
@@ -15506,7 +15505,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C857" s="2" t="s">
         <v>344</v>
@@ -15517,7 +15516,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C858" s="2" t="s">
         <v>350</v>
@@ -15528,10 +15527,10 @@
         <v>858</v>
       </c>
       <c r="B859" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C859" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.4">
@@ -15539,10 +15538,10 @@
         <v>859</v>
       </c>
       <c r="B860" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C860" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.4">
@@ -15550,10 +15549,10 @@
         <v>860</v>
       </c>
       <c r="B861" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C861" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.4">
@@ -15561,10 +15560,10 @@
         <v>861</v>
       </c>
       <c r="B862" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C862" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.4">
@@ -15572,10 +15571,10 @@
         <v>862</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C863" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.4">
@@ -15583,10 +15582,10 @@
         <v>863</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C864" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.4">
@@ -15594,7 +15593,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>701</v>
@@ -15605,10 +15604,10 @@
         <v>865</v>
       </c>
       <c r="B866" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C866" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.4">
@@ -15616,10 +15615,10 @@
         <v>866</v>
       </c>
       <c r="B867" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C867" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.4">
@@ -15627,10 +15626,10 @@
         <v>867</v>
       </c>
       <c r="B868" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C868" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.4">
@@ -15638,10 +15637,10 @@
         <v>868</v>
       </c>
       <c r="B869" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C869" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.4">
@@ -15649,10 +15648,10 @@
         <v>869</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C870" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.4">
@@ -15660,10 +15659,10 @@
         <v>870</v>
       </c>
       <c r="B871" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C871" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.4">
@@ -15671,10 +15670,10 @@
         <v>871</v>
       </c>
       <c r="B872" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C872" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.4">
@@ -15682,7 +15681,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>536</v>
@@ -15693,10 +15692,10 @@
         <v>873</v>
       </c>
       <c r="B874" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.4">
@@ -15704,10 +15703,10 @@
         <v>874</v>
       </c>
       <c r="B875" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C875" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.4">
@@ -15715,10 +15714,10 @@
         <v>875</v>
       </c>
       <c r="B876" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C876" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.4">
@@ -15726,10 +15725,10 @@
         <v>876</v>
       </c>
       <c r="B877" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C877" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.4">
@@ -15737,10 +15736,10 @@
         <v>877</v>
       </c>
       <c r="B878" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.4">
@@ -15748,7 +15747,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>976</v>
@@ -15759,7 +15758,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>976</v>
@@ -15770,10 +15769,10 @@
         <v>880</v>
       </c>
       <c r="B881" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C881" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.4">
@@ -15781,10 +15780,10 @@
         <v>881</v>
       </c>
       <c r="B882" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C882" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.4">
@@ -15792,10 +15791,10 @@
         <v>882</v>
       </c>
       <c r="B883" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C883" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.4">
@@ -15803,10 +15802,10 @@
         <v>883</v>
       </c>
       <c r="B884" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C884" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.4">
@@ -15814,10 +15813,10 @@
         <v>884</v>
       </c>
       <c r="B885" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C885" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.4">
@@ -15825,10 +15824,10 @@
         <v>885</v>
       </c>
       <c r="B886" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C886" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.4">
@@ -15836,10 +15835,10 @@
         <v>886</v>
       </c>
       <c r="B887" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C887" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.4">
@@ -15847,7 +15846,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C888" s="2" t="s">
         <v>708</v>
@@ -15858,10 +15857,10 @@
         <v>888</v>
       </c>
       <c r="B889" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C889" s="2" t="s">
-        <v>1249</v>
+        <v>1210</v>
+      </c>
+      <c r="C889" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.4">
@@ -15869,10 +15868,10 @@
         <v>889</v>
       </c>
       <c r="B890" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C890" s="2" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.4">
@@ -15880,10 +15879,10 @@
         <v>890</v>
       </c>
       <c r="B891" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C891" s="2" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.4">
@@ -15891,7 +15890,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C892" s="2" t="s">
         <v>684</v>
@@ -15902,7 +15901,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C893" s="2" t="s">
         <v>344</v>
@@ -15913,10 +15912,10 @@
         <v>893</v>
       </c>
       <c r="B894" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C894" s="2" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.4">
@@ -15924,10 +15923,10 @@
         <v>894</v>
       </c>
       <c r="B895" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C895" s="2" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.4">
@@ -15935,10 +15934,10 @@
         <v>895</v>
       </c>
       <c r="B896" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C896" s="2" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.4">
@@ -15946,7 +15945,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>970</v>
@@ -15957,7 +15956,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>362</v>
@@ -15968,7 +15967,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C899" s="2" t="s">
         <v>999</v>
@@ -15979,10 +15978,10 @@
         <v>899</v>
       </c>
       <c r="B900" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C900" s="2" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.4">
@@ -15990,10 +15989,10 @@
         <v>900</v>
       </c>
       <c r="B901" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.4">
@@ -16001,10 +16000,10 @@
         <v>901</v>
       </c>
       <c r="B902" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C902" s="2" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.4">
@@ -16012,10 +16011,10 @@
         <v>902</v>
       </c>
       <c r="B903" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C903" s="2" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.4">
@@ -16026,7 +16025,7 @@
         <v>35</v>
       </c>
       <c r="C904" s="2" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.4">
@@ -16034,7 +16033,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C905" s="2" t="s">
         <v>350</v>
@@ -16045,7 +16044,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>350</v>
@@ -16067,7 +16066,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>582</v>
@@ -16078,10 +16077,10 @@
         <v>908</v>
       </c>
       <c r="B909" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C909" s="2" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.4">
@@ -16089,10 +16088,10 @@
         <v>909</v>
       </c>
       <c r="B910" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C910" s="2" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.4">
@@ -16100,10 +16099,10 @@
         <v>910</v>
       </c>
       <c r="B911" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C911" s="2" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.4">
@@ -16111,10 +16110,10 @@
         <v>911</v>
       </c>
       <c r="B912" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C912" s="2" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.4">
@@ -16122,10 +16121,10 @@
         <v>912</v>
       </c>
       <c r="B913" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.4">
@@ -16133,10 +16132,10 @@
         <v>913</v>
       </c>
       <c r="B914" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="C914" s="2" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.4">
@@ -16144,10 +16143,10 @@
         <v>914</v>
       </c>
       <c r="B915" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C915" s="2" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.4">
@@ -16155,10 +16154,10 @@
         <v>915</v>
       </c>
       <c r="B916" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="C916" s="2" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.4">
@@ -16166,10 +16165,10 @@
         <v>916</v>
       </c>
       <c r="B917" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C917" s="2" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.4">
@@ -16177,10 +16176,10 @@
         <v>917</v>
       </c>
       <c r="B918" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C918" s="2" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.4">
@@ -16188,10 +16187,10 @@
         <v>918</v>
       </c>
       <c r="B919" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C919" s="2" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.4">
@@ -16199,10 +16198,10 @@
         <v>919</v>
       </c>
       <c r="B920" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C920" s="2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.4">
@@ -16210,10 +16209,10 @@
         <v>920</v>
       </c>
       <c r="B921" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C921" s="2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.4">
@@ -16224,7 +16223,7 @@
         <v>180</v>
       </c>
       <c r="C922" s="2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.4">
@@ -16232,10 +16231,10 @@
         <v>922</v>
       </c>
       <c r="B923" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C923" s="2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.4">
@@ -16243,10 +16242,10 @@
         <v>923</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C924" s="2" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.4">
@@ -16254,10 +16253,10 @@
         <v>924</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C925" s="2" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.4">
@@ -16265,10 +16264,10 @@
         <v>925</v>
       </c>
       <c r="B926" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C926" s="2" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.4">
@@ -16276,10 +16275,10 @@
         <v>926</v>
       </c>
       <c r="B927" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="C927" s="2" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.4">
@@ -16287,10 +16286,10 @@
         <v>927</v>
       </c>
       <c r="B928" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C928" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.4">
@@ -16298,10 +16297,10 @@
         <v>928</v>
       </c>
       <c r="B929" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C929" s="2" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.4">
@@ -16309,10 +16308,10 @@
         <v>929</v>
       </c>
       <c r="B930" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C930" s="2" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.4">
@@ -16320,10 +16319,10 @@
         <v>930</v>
       </c>
       <c r="B931" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C931" s="2" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.4">
@@ -16331,10 +16330,10 @@
         <v>931</v>
       </c>
       <c r="B932" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C932" s="2" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.4">
@@ -16342,10 +16341,10 @@
         <v>932</v>
       </c>
       <c r="B933" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C933" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.4">
@@ -16353,10 +16352,10 @@
         <v>933</v>
       </c>
       <c r="B934" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C934" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.4">
@@ -16364,10 +16363,10 @@
         <v>934</v>
       </c>
       <c r="B935" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="C935" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.4">
@@ -16375,10 +16374,10 @@
         <v>935</v>
       </c>
       <c r="B936" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C936" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.4">
@@ -16386,10 +16385,10 @@
         <v>936</v>
       </c>
       <c r="B937" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C937" s="2" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.4">
@@ -16397,10 +16396,10 @@
         <v>937</v>
       </c>
       <c r="B938" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C938" s="2" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.4">
@@ -16408,10 +16407,10 @@
         <v>938</v>
       </c>
       <c r="B939" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C939" s="2" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.4">
@@ -16419,10 +16418,10 @@
         <v>939</v>
       </c>
       <c r="B940" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C940" s="2" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.4">
@@ -16430,10 +16429,10 @@
         <v>940</v>
       </c>
       <c r="B941" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C941" s="2" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.4">
@@ -16441,10 +16440,10 @@
         <v>941</v>
       </c>
       <c r="B942" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C942" s="2" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.4">
@@ -16452,10 +16451,10 @@
         <v>942</v>
       </c>
       <c r="B943" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C943" s="2" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.4">
@@ -16463,7 +16462,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C944" s="2" t="s">
         <v>350</v>
@@ -16474,7 +16473,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C945" s="2" t="s">
         <v>970</v>
@@ -16485,10 +16484,10 @@
         <v>945</v>
       </c>
       <c r="B946" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C946" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.4">
@@ -16496,10 +16495,10 @@
         <v>946</v>
       </c>
       <c r="B947" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C947" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.4">
@@ -16507,10 +16506,10 @@
         <v>947</v>
       </c>
       <c r="B948" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C948" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.4">
@@ -16518,10 +16517,10 @@
         <v>948</v>
       </c>
       <c r="B949" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C949" s="2" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.4">
@@ -16529,7 +16528,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C950" s="2" t="s">
         <v>349</v>
@@ -16540,7 +16539,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C951" s="2" t="s">
         <v>362</v>
@@ -16551,10 +16550,10 @@
         <v>951</v>
       </c>
       <c r="B952" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C952" s="2" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.4">
@@ -16562,7 +16561,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C953" s="2" t="s">
         <v>565</v>
@@ -16573,10 +16572,10 @@
         <v>953</v>
       </c>
       <c r="B954" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C954" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.4">
@@ -16584,10 +16583,10 @@
         <v>954</v>
       </c>
       <c r="B955" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C955" s="2" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.4">
@@ -16595,10 +16594,10 @@
         <v>955</v>
       </c>
       <c r="B956" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C956" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.4">
@@ -16606,10 +16605,10 @@
         <v>956</v>
       </c>
       <c r="B957" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C957" s="2" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.4">
@@ -16617,10 +16616,10 @@
         <v>957</v>
       </c>
       <c r="B958" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C958" s="2" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.4">
@@ -16628,7 +16627,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C959" s="2" t="s">
         <v>684</v>
@@ -16639,10 +16638,10 @@
         <v>959</v>
       </c>
       <c r="B960" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C960" s="2" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.4">
@@ -16650,10 +16649,10 @@
         <v>960</v>
       </c>
       <c r="B961" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="C961" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.4">
@@ -16661,10 +16660,10 @@
         <v>961</v>
       </c>
       <c r="B962" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C962" s="2" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.4">
@@ -16672,10 +16671,10 @@
         <v>962</v>
       </c>
       <c r="B963" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C963" s="2" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.4">
@@ -16683,10 +16682,10 @@
         <v>963</v>
       </c>
       <c r="B964" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C964" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.4">
@@ -16694,10 +16693,10 @@
         <v>964</v>
       </c>
       <c r="B965" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C965" s="2" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.4">
@@ -16705,10 +16704,10 @@
         <v>965</v>
       </c>
       <c r="B966" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C966" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.4">
@@ -16716,10 +16715,10 @@
         <v>966</v>
       </c>
       <c r="B967" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C967" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.4">
@@ -16738,10 +16737,10 @@
         <v>968</v>
       </c>
       <c r="B969" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C969" s="2" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.4">
@@ -16749,10 +16748,10 @@
         <v>969</v>
       </c>
       <c r="B970" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C970" s="2" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.4">
@@ -16760,10 +16759,10 @@
         <v>970</v>
       </c>
       <c r="B971" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C971" s="2" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.4">
@@ -16771,7 +16770,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C972" s="2" t="s">
         <v>565</v>
@@ -16782,7 +16781,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C973" s="2" t="s">
         <v>684</v>
@@ -16793,7 +16792,7 @@
         <v>973</v>
       </c>
       <c r="B974" s="2" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="C974" s="2" t="s">
         <v>684</v>
@@ -16804,7 +16803,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C975" s="2" t="s">
         <v>684</v>
@@ -16815,7 +16814,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C976" s="2" t="s">
         <v>684</v>
@@ -16826,10 +16825,10 @@
         <v>976</v>
       </c>
       <c r="B977" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C977" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.4">
@@ -16837,10 +16836,10 @@
         <v>977</v>
       </c>
       <c r="B978" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C978" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.4">
@@ -16848,10 +16847,10 @@
         <v>978</v>
       </c>
       <c r="B979" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C979" s="2" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.4">
@@ -16859,10 +16858,10 @@
         <v>979</v>
       </c>
       <c r="B980" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C980" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.4">
@@ -16870,10 +16869,10 @@
         <v>980</v>
       </c>
       <c r="B981" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C981" s="2" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.4">
@@ -16881,10 +16880,10 @@
         <v>981</v>
       </c>
       <c r="B982" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C982" s="2" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.4">
@@ -16892,10 +16891,10 @@
         <v>982</v>
       </c>
       <c r="B983" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C983" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.4">
@@ -16903,10 +16902,10 @@
         <v>983</v>
       </c>
       <c r="B984" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="C984" s="2" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.4">
@@ -16914,10 +16913,10 @@
         <v>984</v>
       </c>
       <c r="B985" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="C985" s="2" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.4">
@@ -16925,10 +16924,10 @@
         <v>985</v>
       </c>
       <c r="B986" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C986" s="2" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.4">
@@ -16936,7 +16935,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C987" s="2" t="s">
         <v>378</v>
@@ -16947,10 +16946,10 @@
         <v>987</v>
       </c>
       <c r="B988" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C988" s="2" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.4">
@@ -16958,10 +16957,10 @@
         <v>988</v>
       </c>
       <c r="B989" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C989" s="2" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.4">
@@ -16969,10 +16968,10 @@
         <v>989</v>
       </c>
       <c r="B990" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C990" s="2" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.4">
@@ -16980,10 +16979,10 @@
         <v>990</v>
       </c>
       <c r="B991" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C991" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.4">
@@ -16991,10 +16990,10 @@
         <v>991</v>
       </c>
       <c r="B992" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C992" s="2" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.4">
@@ -17002,10 +17001,10 @@
         <v>992</v>
       </c>
       <c r="B993" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C993" s="2" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.4">
@@ -17013,10 +17012,10 @@
         <v>993</v>
       </c>
       <c r="B994" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C994" s="2" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.4">
@@ -17024,10 +17023,10 @@
         <v>994</v>
       </c>
       <c r="B995" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C995" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.4">
@@ -17035,10 +17034,10 @@
         <v>995</v>
       </c>
       <c r="B996" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C996" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.4">
@@ -17046,10 +17045,10 @@
         <v>996</v>
       </c>
       <c r="B997" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C997" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.4">
@@ -17057,10 +17056,10 @@
         <v>997</v>
       </c>
       <c r="B998" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C998" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.4">
@@ -17068,10 +17067,10 @@
         <v>998</v>
       </c>
       <c r="B999" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C999" s="2" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.4">
@@ -17079,10 +17078,10 @@
         <v>999</v>
       </c>
       <c r="B1000" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C1000" s="2" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.4">
@@ -17090,10 +17089,10 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C1001" s="2" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.4">
@@ -17101,10 +17100,10 @@
         <v>1001</v>
       </c>
       <c r="B1002" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C1002" s="2" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.4">
@@ -17112,10 +17111,10 @@
         <v>1002</v>
       </c>
       <c r="B1003" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C1003" s="2" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.4">
@@ -17123,10 +17122,10 @@
         <v>1003</v>
       </c>
       <c r="B1004" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C1004" s="2" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.4">
@@ -17134,10 +17133,10 @@
         <v>1004</v>
       </c>
       <c r="B1005" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C1005" s="2" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.4">
@@ -17145,10 +17144,10 @@
         <v>1005</v>
       </c>
       <c r="B1006" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C1006" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.4">
@@ -17156,10 +17155,10 @@
         <v>1006</v>
       </c>
       <c r="B1007" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C1007" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.4">
@@ -17167,10 +17166,10 @@
         <v>1007</v>
       </c>
       <c r="B1008" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C1008" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.4">
@@ -17178,10 +17177,10 @@
         <v>1008</v>
       </c>
       <c r="B1009" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C1009" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.4">
@@ -17189,10 +17188,10 @@
         <v>1009</v>
       </c>
       <c r="B1010" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C1010" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.4">
@@ -17200,10 +17199,10 @@
         <v>1010</v>
       </c>
       <c r="B1011" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="C1011" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.4">
@@ -17211,10 +17210,10 @@
         <v>1011</v>
       </c>
       <c r="B1012" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C1012" s="2" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.4">
@@ -17222,10 +17221,10 @@
         <v>1012</v>
       </c>
       <c r="B1013" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="C1013" s="2" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.4">
@@ -17233,10 +17232,10 @@
         <v>1013</v>
       </c>
       <c r="B1014" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C1014" s="2" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.4">
@@ -17244,10 +17243,10 @@
         <v>1014</v>
       </c>
       <c r="B1015" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="C1015" s="2" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.4">
@@ -17255,10 +17254,10 @@
         <v>1015</v>
       </c>
       <c r="B1016" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C1016" s="2" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.4">
@@ -17266,10 +17265,10 @@
         <v>1016</v>
       </c>
       <c r="B1017" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C1017" s="2" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.4">
@@ -17277,10 +17276,10 @@
         <v>1017</v>
       </c>
       <c r="B1018" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C1018" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.4">
@@ -17288,7 +17287,7 @@
         <v>1018</v>
       </c>
       <c r="B1019" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C1019" s="2" t="s">
         <v>701</v>
@@ -17299,7 +17298,7 @@
         <v>1019</v>
       </c>
       <c r="B1020" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="C1020" s="2" t="s">
         <v>465</v>
@@ -17310,10 +17309,10 @@
         <v>1020</v>
       </c>
       <c r="B1021" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C1021" s="2" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.4">
@@ -17321,10 +17320,10 @@
         <v>1021</v>
       </c>
       <c r="B1022" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C1022" s="2" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.4">
@@ -17332,10 +17331,10 @@
         <v>1022</v>
       </c>
       <c r="B1023" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C1023" s="2" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.4">
@@ -17343,10 +17342,10 @@
         <v>1023</v>
       </c>
       <c r="B1024" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C1024" s="2" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.4">
@@ -17354,10 +17353,10 @@
         <v>1024</v>
       </c>
       <c r="B1025" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C1025" s="2" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.4">
@@ -17365,10 +17364,10 @@
         <v>1025</v>
       </c>
       <c r="B1026" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C1026" s="2" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.4">
@@ -17376,10 +17375,10 @@
         <v>1026</v>
       </c>
       <c r="B1027" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C1027" s="2" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.4">
@@ -17387,10 +17386,10 @@
         <v>1027</v>
       </c>
       <c r="B1028" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C1028" s="2" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.4">
@@ -17398,10 +17397,10 @@
         <v>1028</v>
       </c>
       <c r="B1029" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C1029" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.4">
@@ -17409,10 +17408,10 @@
         <v>1029</v>
       </c>
       <c r="B1030" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C1030" s="2" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.4">
@@ -17420,10 +17419,10 @@
         <v>1030</v>
       </c>
       <c r="B1031" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C1031" s="2" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.4">
@@ -17431,10 +17430,10 @@
         <v>1031</v>
       </c>
       <c r="B1032" s="2" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="C1032" s="2" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.4">
@@ -17442,10 +17441,10 @@
         <v>1032</v>
       </c>
       <c r="B1033" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C1033" s="2" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.4">
@@ -17453,10 +17452,10 @@
         <v>1033</v>
       </c>
       <c r="B1034" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C1034" s="2" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.4">
@@ -17464,10 +17463,10 @@
         <v>1034</v>
       </c>
       <c r="B1035" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C1035" s="2" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.4">
@@ -17475,10 +17474,10 @@
         <v>1035</v>
       </c>
       <c r="B1036" s="2" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="C1036" s="2" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.4">
@@ -17486,10 +17485,10 @@
         <v>1036</v>
       </c>
       <c r="B1037" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C1037" s="2" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.4">
@@ -17497,7 +17496,7 @@
         <v>1037</v>
       </c>
       <c r="B1038" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C1038" s="2" t="s">
         <v>378</v>
@@ -17508,7 +17507,7 @@
         <v>1038</v>
       </c>
       <c r="B1039" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C1039" s="2" t="s">
         <v>500</v>
@@ -17519,10 +17518,10 @@
         <v>1039</v>
       </c>
       <c r="B1040" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C1040" s="2" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.4">
@@ -17530,10 +17529,10 @@
         <v>1040</v>
       </c>
       <c r="B1041" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C1041" s="2" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.4">
@@ -17541,10 +17540,10 @@
         <v>1041</v>
       </c>
       <c r="B1042" s="2" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="C1042" s="2" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.4">
@@ -17552,10 +17551,10 @@
         <v>1042</v>
       </c>
       <c r="B1043" s="2" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="C1043" s="2" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.4">
@@ -17563,10 +17562,10 @@
         <v>1043</v>
       </c>
       <c r="B1044" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C1044" s="2" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.4">
@@ -17574,10 +17573,10 @@
         <v>1044</v>
       </c>
       <c r="B1045" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C1045" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.4">
@@ -17585,10 +17584,10 @@
         <v>1045</v>
       </c>
       <c r="B1046" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C1046" s="2" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.4">
@@ -17596,10 +17595,10 @@
         <v>1046</v>
       </c>
       <c r="B1047" s="2" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="C1047" s="2" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.4">
@@ -17607,10 +17606,10 @@
         <v>1047</v>
       </c>
       <c r="B1048" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C1048" s="2" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.4">
@@ -17618,10 +17617,10 @@
         <v>1048</v>
       </c>
       <c r="B1049" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C1049" s="2" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.4">
@@ -17629,10 +17628,10 @@
         <v>1049</v>
       </c>
       <c r="B1050" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C1050" s="2" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.4">
@@ -17640,10 +17639,10 @@
         <v>1050</v>
       </c>
       <c r="B1051" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C1051" s="2" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.4">
@@ -17651,10 +17650,10 @@
         <v>1051</v>
       </c>
       <c r="B1052" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C1052" s="2" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.4">
@@ -17662,10 +17661,10 @@
         <v>1052</v>
       </c>
       <c r="B1053" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C1053" s="2" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.4">
@@ -17673,10 +17672,10 @@
         <v>1053</v>
       </c>
       <c r="B1054" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C1054" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.4">
@@ -17684,10 +17683,10 @@
         <v>1054</v>
       </c>
       <c r="B1055" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C1055" s="2" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.4">
@@ -17695,10 +17694,10 @@
         <v>1055</v>
       </c>
       <c r="B1056" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C1056" s="2" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.4">
@@ -17706,10 +17705,10 @@
         <v>1056</v>
       </c>
       <c r="B1057" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C1057" s="2" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.4">
@@ -17717,10 +17716,10 @@
         <v>1057</v>
       </c>
       <c r="B1058" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C1058" s="2" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.4">
@@ -17728,10 +17727,10 @@
         <v>1058</v>
       </c>
       <c r="B1059" s="2" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="C1059" s="2" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.4">
@@ -17739,10 +17738,10 @@
         <v>1059</v>
       </c>
       <c r="B1060" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C1060" s="2" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.4">
@@ -17750,10 +17749,10 @@
         <v>1060</v>
       </c>
       <c r="B1061" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C1061" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.4">
@@ -17761,10 +17760,10 @@
         <v>1061</v>
       </c>
       <c r="B1062" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C1062" s="2" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.4">
@@ -17772,10 +17771,10 @@
         <v>1062</v>
       </c>
       <c r="B1063" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C1063" s="2" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.4">
@@ -17783,10 +17782,10 @@
         <v>1063</v>
       </c>
       <c r="B1064" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C1064" s="2" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.4">
@@ -17794,10 +17793,10 @@
         <v>1064</v>
       </c>
       <c r="B1065" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C1065" s="2" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.4">
@@ -17805,10 +17804,10 @@
         <v>1065</v>
       </c>
       <c r="B1066" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C1066" s="2" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.4">
@@ -17816,10 +17815,10 @@
         <v>1066</v>
       </c>
       <c r="B1067" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C1067" s="2" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.4">
@@ -17827,10 +17826,10 @@
         <v>1067</v>
       </c>
       <c r="B1068" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C1068" s="2" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.4">
@@ -17838,10 +17837,10 @@
         <v>1068</v>
       </c>
       <c r="B1069" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C1069" s="2" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.4">
@@ -17849,10 +17848,10 @@
         <v>1069</v>
       </c>
       <c r="B1070" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C1070" s="2" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.4">
@@ -17860,10 +17859,10 @@
         <v>1070</v>
       </c>
       <c r="B1071" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C1071" s="2" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.4">
@@ -17871,10 +17870,10 @@
         <v>1071</v>
       </c>
       <c r="B1072" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C1072" s="2" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.4">
@@ -17882,10 +17881,10 @@
         <v>1072</v>
       </c>
       <c r="B1073" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C1073" s="2" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.4">
@@ -17893,10 +17892,10 @@
         <v>1073</v>
       </c>
       <c r="B1074" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C1074" s="2" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.4">
@@ -17904,10 +17903,10 @@
         <v>1074</v>
       </c>
       <c r="B1075" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C1075" s="2" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.4">
@@ -17915,10 +17914,10 @@
         <v>1075</v>
       </c>
       <c r="B1076" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C1076" s="2" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.4">
@@ -17926,10 +17925,10 @@
         <v>1076</v>
       </c>
       <c r="B1077" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C1077" s="2" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.4">
@@ -17937,10 +17936,10 @@
         <v>1077</v>
       </c>
       <c r="B1078" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C1078" s="2" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.4">
@@ -17948,10 +17947,10 @@
         <v>1078</v>
       </c>
       <c r="B1079" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C1079" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.4">
@@ -17959,10 +17958,10 @@
         <v>1079</v>
       </c>
       <c r="B1080" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C1080" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.4">
@@ -17970,10 +17969,10 @@
         <v>1080</v>
       </c>
       <c r="B1081" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C1081" s="2" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.4">
@@ -17981,10 +17980,10 @@
         <v>1081</v>
       </c>
       <c r="B1082" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C1082" s="2" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.4">
@@ -17992,10 +17991,10 @@
         <v>1082</v>
       </c>
       <c r="B1083" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C1083" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.4">
@@ -18003,10 +18002,10 @@
         <v>1083</v>
       </c>
       <c r="B1084" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C1084" s="2" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.4">
@@ -18014,10 +18013,10 @@
         <v>1084</v>
       </c>
       <c r="B1085" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C1085" s="2" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.4">
@@ -18025,10 +18024,10 @@
         <v>1085</v>
       </c>
       <c r="B1086" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="C1086" s="2" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.4">
@@ -18036,10 +18035,10 @@
         <v>1086</v>
       </c>
       <c r="B1087" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C1087" s="2" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.4">
@@ -18047,10 +18046,10 @@
         <v>1087</v>
       </c>
       <c r="B1088" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C1088" s="2" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.4">
@@ -18058,10 +18057,10 @@
         <v>1088</v>
       </c>
       <c r="B1089" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C1089" s="2" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.4">
@@ -18069,10 +18068,10 @@
         <v>1089</v>
       </c>
       <c r="B1090" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C1090" s="2" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.4">
@@ -18080,10 +18079,10 @@
         <v>1090</v>
       </c>
       <c r="B1091" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C1091" s="2" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.4">
@@ -18091,10 +18090,10 @@
         <v>1091</v>
       </c>
       <c r="B1092" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C1092" s="2" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.4">
@@ -18102,10 +18101,10 @@
         <v>1092</v>
       </c>
       <c r="B1093" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C1093" s="2" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.4">
@@ -18113,10 +18112,10 @@
         <v>1093</v>
       </c>
       <c r="B1094" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C1094" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.4">
@@ -18124,10 +18123,10 @@
         <v>1094</v>
       </c>
       <c r="B1095" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C1095" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.4">
@@ -18135,10 +18134,10 @@
         <v>1095</v>
       </c>
       <c r="B1096" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C1096" s="2" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.4">
@@ -18146,10 +18145,10 @@
         <v>1096</v>
       </c>
       <c r="B1097" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C1097" s="2" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.4">
@@ -18157,10 +18156,10 @@
         <v>1097</v>
       </c>
       <c r="B1098" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C1098" s="2" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.4">
@@ -18168,10 +18167,10 @@
         <v>1098</v>
       </c>
       <c r="B1099" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C1099" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.4">
@@ -18179,10 +18178,10 @@
         <v>1099</v>
       </c>
       <c r="B1100" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C1100" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.4">
@@ -18190,10 +18189,10 @@
         <v>1100</v>
       </c>
       <c r="B1101" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C1101" s="2" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.4">
@@ -18201,10 +18200,10 @@
         <v>1101</v>
       </c>
       <c r="B1102" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="C1102" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.4">
@@ -18212,10 +18211,10 @@
         <v>1102</v>
       </c>
       <c r="B1103" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C1103" s="2" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.4">
@@ -18223,10 +18222,10 @@
         <v>1103</v>
       </c>
       <c r="B1104" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="C1104" s="2" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.4">
@@ -18234,10 +18233,10 @@
         <v>1104</v>
       </c>
       <c r="B1105" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C1105" s="2" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.4">
@@ -18245,10 +18244,10 @@
         <v>1105</v>
       </c>
       <c r="B1106" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="C1106" s="2" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.4">
@@ -18256,10 +18255,10 @@
         <v>1106</v>
       </c>
       <c r="B1107" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="C1107" s="2" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.4">
@@ -18267,10 +18266,10 @@
         <v>1107</v>
       </c>
       <c r="B1108" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="C1108" s="2" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.4">
@@ -18278,10 +18277,10 @@
         <v>1108</v>
       </c>
       <c r="B1109" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C1109" s="2" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.4">
@@ -18289,10 +18288,10 @@
         <v>1109</v>
       </c>
       <c r="B1110" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C1110" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.4">
@@ -18300,10 +18299,10 @@
         <v>1110</v>
       </c>
       <c r="B1111" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C1111" s="2" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.4">
@@ -18311,10 +18310,10 @@
         <v>1111</v>
       </c>
       <c r="B1112" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C1112" s="2" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.4">
@@ -18322,10 +18321,10 @@
         <v>1112</v>
       </c>
       <c r="B1113" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C1113" s="2" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.4">
@@ -18333,10 +18332,10 @@
         <v>1113</v>
       </c>
       <c r="B1114" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="C1114" s="2" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.4">
@@ -18344,10 +18343,10 @@
         <v>1114</v>
       </c>
       <c r="B1115" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C1115" s="2" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.4">
@@ -18355,10 +18354,10 @@
         <v>1115</v>
       </c>
       <c r="B1116" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C1116" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.4">
@@ -18366,10 +18365,10 @@
         <v>1116</v>
       </c>
       <c r="B1117" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C1117" s="2" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.4">
@@ -18377,10 +18376,10 @@
         <v>1117</v>
       </c>
       <c r="B1118" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="C1118" s="2" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.4">
@@ -18388,10 +18387,10 @@
         <v>1118</v>
       </c>
       <c r="B1119" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="C1119" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.4">
@@ -18399,7 +18398,7 @@
         <v>1119</v>
       </c>
       <c r="B1120" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="C1120" s="2" t="s">
         <v>970</v>
@@ -18410,7 +18409,7 @@
         <v>1120</v>
       </c>
       <c r="B1121" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C1121" s="2" t="s">
         <v>693</v>
@@ -18421,10 +18420,10 @@
         <v>1121</v>
       </c>
       <c r="B1122" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="C1122" s="2" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.4">
@@ -18432,10 +18431,10 @@
         <v>1122</v>
       </c>
       <c r="B1123" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C1123" s="2" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.4">
@@ -18443,10 +18442,10 @@
         <v>1123</v>
       </c>
       <c r="B1124" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="C1124" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.4">
@@ -18454,10 +18453,10 @@
         <v>1124</v>
       </c>
       <c r="B1125" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C1125" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.4">
@@ -18465,10 +18464,10 @@
         <v>1125</v>
       </c>
       <c r="B1126" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C1126" s="2" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.4">
@@ -18476,10 +18475,10 @@
         <v>1126</v>
       </c>
       <c r="B1127" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C1127" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.4">
@@ -18487,7 +18486,7 @@
         <v>1127</v>
       </c>
       <c r="B1128" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C1128" s="2" t="s">
         <v>349</v>
@@ -18498,10 +18497,10 @@
         <v>1128</v>
       </c>
       <c r="B1129" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="C1129" s="2" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.4">
@@ -18509,10 +18508,10 @@
         <v>1129</v>
       </c>
       <c r="B1130" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C1130" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.4">
@@ -18520,10 +18519,10 @@
         <v>1130</v>
       </c>
       <c r="B1131" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="C1131" s="2" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.4">
@@ -18531,10 +18530,10 @@
         <v>1131</v>
       </c>
       <c r="B1132" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C1132" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.4">
@@ -18542,10 +18541,10 @@
         <v>1132</v>
       </c>
       <c r="B1133" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C1133" s="2" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.4">
@@ -18553,10 +18552,10 @@
         <v>1133</v>
       </c>
       <c r="B1134" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="C1134" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.4">
@@ -18564,10 +18563,10 @@
         <v>1134</v>
       </c>
       <c r="B1135" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="C1135" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.4">
@@ -18575,10 +18574,10 @@
         <v>1135</v>
       </c>
       <c r="B1136" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="C1136" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.4">
@@ -18586,10 +18585,10 @@
         <v>1136</v>
       </c>
       <c r="B1137" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C1137" s="2" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.4">
@@ -18597,10 +18596,10 @@
         <v>1137</v>
       </c>
       <c r="B1138" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="C1138" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.4">
@@ -18608,10 +18607,10 @@
         <v>1138</v>
       </c>
       <c r="B1139" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C1139" s="2" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.4">
@@ -18619,10 +18618,10 @@
         <v>1139</v>
       </c>
       <c r="B1140" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C1140" s="2" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.4">
@@ -18630,10 +18629,10 @@
         <v>1140</v>
       </c>
       <c r="B1141" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C1141" s="2" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.4">
@@ -18641,10 +18640,10 @@
         <v>1141</v>
       </c>
       <c r="B1142" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="C1142" s="2" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.4">
@@ -18652,10 +18651,10 @@
         <v>1142</v>
       </c>
       <c r="B1143" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C1143" s="2" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.4">
@@ -18663,10 +18662,10 @@
         <v>1143</v>
       </c>
       <c r="B1144" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C1144" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.4">
@@ -18674,10 +18673,10 @@
         <v>1144</v>
       </c>
       <c r="B1145" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="C1145" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.4">
@@ -18685,10 +18684,10 @@
         <v>1145</v>
       </c>
       <c r="B1146" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C1146" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.4">
@@ -18696,10 +18695,10 @@
         <v>1146</v>
       </c>
       <c r="B1147" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C1147" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.4">
@@ -18707,10 +18706,10 @@
         <v>1147</v>
       </c>
       <c r="B1148" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="C1148" s="2" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.4">
@@ -18718,10 +18717,10 @@
         <v>1148</v>
       </c>
       <c r="B1149" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C1149" s="2" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.4">
@@ -18729,10 +18728,10 @@
         <v>1149</v>
       </c>
       <c r="B1150" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C1150" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1151" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -18740,10 +18739,10 @@
         <v>1150</v>
       </c>
       <c r="B1151" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="C1151" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.4">
@@ -18751,10 +18750,10 @@
         <v>1151</v>
       </c>
       <c r="B1152" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="C1152" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.4">
@@ -18762,10 +18761,10 @@
         <v>1152</v>
       </c>
       <c r="B1153" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="C1153" s="2" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.4">
@@ -18773,10 +18772,10 @@
         <v>1153</v>
       </c>
       <c r="B1154" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C1154" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.4">
@@ -18784,10 +18783,10 @@
         <v>1154</v>
       </c>
       <c r="B1155" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="C1155" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.4">
@@ -18795,10 +18794,10 @@
         <v>1155</v>
       </c>
       <c r="B1156" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="C1156" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.4">
@@ -18806,10 +18805,10 @@
         <v>1156</v>
       </c>
       <c r="B1157" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="C1157" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.4">
@@ -18817,10 +18816,10 @@
         <v>1157</v>
       </c>
       <c r="B1158" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="C1158" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.4">
@@ -18828,15 +18827,37 @@
         <v>1158</v>
       </c>
       <c r="B1159" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="C1159" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C201" r:id="rId1" xr:uid="{FED62E05-E0BD-47E2-AA50-969DFF1F8DA5}"/>
+    <hyperlink ref="C207" r:id="rId2" xr:uid="{9751B8BF-0178-4F9E-91BF-7DAE9CBC244F}"/>
+    <hyperlink ref="C363" r:id="rId3" xr:uid="{C3A7F3E2-E684-4579-BA5C-BDFFD69E91BF}"/>
+    <hyperlink ref="C387" r:id="rId4" xr:uid="{58904711-F8FD-4350-A8B3-293CA53F1F59}"/>
+    <hyperlink ref="C398" r:id="rId5" xr:uid="{7810BF04-BFAD-4C95-8BCF-C6CA5555B25A}"/>
+    <hyperlink ref="C417" r:id="rId6" xr:uid="{3B1A5F69-5947-469E-9729-2171B8C0B72A}"/>
+    <hyperlink ref="C418" r:id="rId7" xr:uid="{F06FFFCD-5D53-458F-BA35-A8788D353034}"/>
+    <hyperlink ref="C420" r:id="rId8" xr:uid="{F7621E7D-50C1-4366-9600-3270301E19A7}"/>
+    <hyperlink ref="C558" r:id="rId9" xr:uid="{82896067-ED66-4D65-B5A1-8131827220CA}"/>
+    <hyperlink ref="C590" r:id="rId10" xr:uid="{5834AF65-9600-45FA-B949-EEEE0745BA13}"/>
+    <hyperlink ref="C639" r:id="rId11" xr:uid="{EA40C6F9-9CBE-459A-B01D-27FE832005F0}"/>
+    <hyperlink ref="C658" r:id="rId12" xr:uid="{7361208D-79A1-4182-BA84-7CA2A3C9AA1E}"/>
+    <hyperlink ref="C747" r:id="rId13" xr:uid="{001F3C35-8AF0-4794-B5E1-7464252E482C}"/>
+    <hyperlink ref="C833" r:id="rId14" xr:uid="{8E8293B2-3AB2-4544-BC3D-2A1736F54799}"/>
+    <hyperlink ref="C889" r:id="rId15" xr:uid="{F37B0C6E-2A0A-45BC-9C58-562E3BC3C0F5}"/>
+    <hyperlink ref="C571" r:id="rId16" xr:uid="{39AD0055-85EE-434D-9E7D-F4B0E192C8EE}"/>
+    <hyperlink ref="C573" r:id="rId17" xr:uid="{2CAF60D0-37F9-494F-8726-BDFDCC4A2243}"/>
+    <hyperlink ref="C574" r:id="rId18" xr:uid="{99836C0A-C455-417B-82A4-E63DE33883D6}"/>
+    <hyperlink ref="C576" r:id="rId19" xr:uid="{0793D1E5-CA71-417C-A266-8DF092F2DA9F}"/>
+    <hyperlink ref="C577" r:id="rId20" xr:uid="{22E3CE76-E13C-4087-8F6B-DE76908DE1BE}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId21"/>
 </worksheet>
 </file>
--- a/data/df2_20200917_edited.xlsx
+++ b/data/df2_20200917_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\PycharmProjects\faq_chatbot_sciecne_3rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A9E444-EAD2-4F60-AEE2-592F2259372F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14534A1-3620-4A90-89FF-CD94E8BDD5FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1804">
   <si>
     <t>구리의 질량을 증가시켜도 반응하는 구리와 산소의 질량비는 일정하다</t>
   </si>
@@ -5956,6 +5956,139 @@
   </si>
   <si>
     <t>일의 뜻이 뭐야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇살이에요?</t>
+  </si>
+  <si>
+    <t>나이가 어떻게 돼요?</t>
+  </si>
+  <si>
+    <t>너 몇살이니</t>
+  </si>
+  <si>
+    <t>생일이 언제에요?</t>
+  </si>
+  <si>
+    <t>생일이 언제인가요?</t>
+  </si>
+  <si>
+    <t>안녕하세요 반가워요</t>
+  </si>
+  <si>
+    <t>슈뢰딩거 알아요?</t>
+  </si>
+  <si>
+    <t>안녕하세요 반가워요.</t>
+  </si>
+  <si>
+    <t>망고 알아?</t>
+  </si>
+  <si>
+    <t>망고 알아요?</t>
+  </si>
+  <si>
+    <t>일이란 무엇인가요</t>
+  </si>
+  <si>
+    <t>김혜인알아여?</t>
+  </si>
+  <si>
+    <t>태호쌤 무슨반 담임이게요</t>
+  </si>
+  <si>
+    <t>오우오우 보고싶어요</t>
+  </si>
+  <si>
+    <t>열팽창이 뭔가요 ?</t>
+  </si>
+  <si>
+    <t>천제의 일주 운동이 뭔가요 ?</t>
+  </si>
+  <si>
+    <t>이거 민태호쌤이 만든건가여 ?</t>
+  </si>
+  <si>
+    <t>분자는 뭔가요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쌤 머하세여 </t>
+  </si>
+  <si>
+    <t>유튜브 시러여</t>
+  </si>
+  <si>
+    <t>망고는 머해여</t>
+  </si>
+  <si>
+    <t>원자 분자 정의 알려주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소는 뭔가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자는 뭔가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>열팽창 뜻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분자가 뭐에요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자가 뭐에요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소가 뭐에요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 제가 뭘 해드리면 될까요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜인 알아여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자란 물질을 구성하는 기본 단위입니다. 원래는 원자가 제일 작은 줄 알았는데 이 원자도 양성자, 중성자, 전자로 이루어져 있었고 양성자랑 중성자는 또 쿼크로 이루어져 있어서 원자가 세상에서 가장 작은 건 아니에요.</t>
+  </si>
+  <si>
+    <t>원소는 물질을 이루는 기본 성분을 의미해요.</t>
+  </si>
+  <si>
+    <t>분자는 물질이 화학적 성질을 유지하는 최소 단위입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자는 물질을 구성하는 기본 단위이고, 분자는 물질이 화학적 성질을 유지하는 최소 단위입니다. 분자는 원자가 결합해서 만들어지는데, 분자를 원자로 쪼갤 경우 화학적 성질이 바껴요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자 분자 차이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>천체의 운동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>천체의 운동에는 일주 운동과 연주 운동이 있습니다. 일주 운동은 24시간을 주기로 하는 천체 운동이며 지구 자전 때문에 생깁니다. 연주 운동은 1년을 주기로 하며 지구 공전에 의해 생깁니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>망고는 케이지 안에서 잘 살고 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>열팽창은 온도가 변함에 따라 물체의 모양, 길이, 부피 등이 변하는 현상입니다.  중고등학교 수준에서는 온도가 올라갈 때 길이나 부피가 늘어나는 상황만을 주로 다룹니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6326,10 +6459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C1228"/>
+  <dimension ref="A1:C1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1207" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1228" sqref="B1228"/>
+    <sheetView tabSelected="1" topLeftCell="A1241" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1262" sqref="B1262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -19844,6 +19977,380 @@
         <v>1762</v>
       </c>
     </row>
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1229" s="1">
+        <v>1228</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1229" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1230" s="1">
+        <v>1229</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1230" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1231" s="1">
+        <v>1230</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1231" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1232" s="1">
+        <v>1231</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C1232" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1233" s="1">
+        <v>1232</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C1233" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1234" s="1">
+        <v>1233</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1234" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1235" s="1">
+        <v>1234</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C1235" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1236" s="1">
+        <v>1235</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1236" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1237" s="1">
+        <v>1236</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C1237" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1238" s="1">
+        <v>1237</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1238" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1239" s="1">
+        <v>1238</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1239" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1240" s="1">
+        <v>1239</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1240" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1241" s="1">
+        <v>1240</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C1241" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1242" s="1">
+        <v>1241</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1243" s="1">
+        <v>1242</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C1243" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1244" s="1">
+        <v>1243</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1244" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1245" s="1">
+        <v>1244</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1245" s="2" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1246" s="1">
+        <v>1245</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C1246" s="2" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1247" s="1">
+        <v>1246</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1247" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1248" s="1">
+        <v>1247</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C1248" s="2" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1249" s="1">
+        <v>1248</v>
+      </c>
+      <c r="B1249" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C1249" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1250" s="1">
+        <v>1249</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C1250" s="2" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1251" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B1251" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1252" s="1">
+        <v>1251</v>
+      </c>
+      <c r="B1252" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1253" s="1">
+        <v>1252</v>
+      </c>
+      <c r="B1253" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1253" s="2" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1254" s="1">
+        <v>1253</v>
+      </c>
+      <c r="B1254" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1254" s="2" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1255" s="1">
+        <v>1254</v>
+      </c>
+      <c r="B1255" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1256" s="1">
+        <v>1255</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1256" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1257" s="1">
+        <v>1256</v>
+      </c>
+      <c r="B1257" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1258" s="1">
+        <v>1257</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C1258" s="2" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1259" s="1">
+        <v>1258</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C1259" s="2" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1260" s="1">
+        <v>1259</v>
+      </c>
+      <c r="B1260" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1260" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1261" s="1">
+        <v>1260</v>
+      </c>
+      <c r="B1261" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C1261" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1262" s="1">
+        <v>1261</v>
+      </c>
+      <c r="B1262" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1262" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/df2_20200917_edited.xlsx
+++ b/data/df2_20200917_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\PycharmProjects\faq_chatbot_sciecne_3rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14534A1-3620-4A90-89FF-CD94E8BDD5FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EF9E21-36EC-429E-A905-355895494F73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="1894">
   <si>
     <t>구리의 질량을 증가시켜도 반응하는 구리와 산소의 질량비는 일정하다</t>
   </si>
@@ -6089,6 +6089,296 @@
   </si>
   <si>
     <t>열팽창은 온도가 변함에 따라 물체의 모양, 길이, 부피 등이 변하는 현상입니다.  중고등학교 수준에서는 온도가 올라갈 때 길이나 부피가 늘어나는 상황만을 주로 다룹니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단열팽창이 뭐야</t>
+  </si>
+  <si>
+    <t>열팽창이 뭐야</t>
+  </si>
+  <si>
+    <t>단열팽창이 뭐야??</t>
+  </si>
+  <si>
+    <t>단열팽창 뜻</t>
+  </si>
+  <si>
+    <t>단열팽창 과정</t>
+  </si>
+  <si>
+    <t>단열팽창에서 온도가 낮아지는 이유</t>
+  </si>
+  <si>
+    <t>천체의 일주운동이 뭔지 알려줘</t>
+  </si>
+  <si>
+    <t>여자친구가 뭐에요?</t>
+  </si>
+  <si>
+    <t>사랑합니다 당신을</t>
+  </si>
+  <si>
+    <t>성은이가 누구인가여</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐래는건가여 </t>
+  </si>
+  <si>
+    <t>물어보는 것도 못해요?</t>
+  </si>
+  <si>
+    <t>민태호가 누구엥여</t>
+  </si>
+  <si>
+    <t>아하~~~~~~~</t>
+  </si>
+  <si>
+    <t>이름이 머이여?</t>
+  </si>
+  <si>
+    <t>쌤 보고십어여</t>
+  </si>
+  <si>
+    <t>하.........</t>
+  </si>
+  <si>
+    <t>외여?ㅠㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>학교는 언제가나여!</t>
+  </si>
+  <si>
+    <t>개학은 언제에여</t>
+  </si>
+  <si>
+    <t>개학식때 줌으로 수업해여?ㅠㅠ</t>
+  </si>
+  <si>
+    <t>개학식때 학교 가나여</t>
+  </si>
+  <si>
+    <t>저 과학 좋아해여</t>
+  </si>
+  <si>
+    <t>쌤 과학이 좋아여 제가 좋아여</t>
+  </si>
+  <si>
+    <t>됐어요.....</t>
+  </si>
+  <si>
+    <t>망고 머해여</t>
+  </si>
+  <si>
+    <t>쌤 기여워영</t>
+  </si>
+  <si>
+    <t>쌤 귀여워여</t>
+  </si>
+  <si>
+    <t>망고 지금 머하고있어여</t>
+  </si>
+  <si>
+    <t>아니 무슨....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안영하세여 </t>
+  </si>
+  <si>
+    <t>안녕하세여 반가워요~</t>
+  </si>
+  <si>
+    <t>방가벙가!!!!!!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방가벙가!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">방가방가!    </t>
+  </si>
+  <si>
+    <t>알아듣는게 뭐애요</t>
+  </si>
+  <si>
+    <t>과학 안물어봣어요</t>
+  </si>
+  <si>
+    <t>과학너무시러여</t>
+  </si>
+  <si>
+    <t>구름이 왜 생기나요?</t>
+  </si>
+  <si>
+    <t>지구의 공기</t>
+  </si>
+  <si>
+    <t>성층권이 뭔가요?</t>
+  </si>
+  <si>
+    <t>대류권 이 뭔가요?</t>
+  </si>
+  <si>
+    <t>작용 반작용이 몬가요</t>
+  </si>
+  <si>
+    <t>중앙고 알아요?</t>
+  </si>
+  <si>
+    <t>동두천중앙고</t>
+  </si>
+  <si>
+    <t>민태호쌤 바보</t>
+  </si>
+  <si>
+    <t>동두천 알아요?</t>
+  </si>
+  <si>
+    <t>밥 뭐 먹을까여 ?</t>
+  </si>
+  <si>
+    <t>아뇨 제 식사메뉴 골라주세요</t>
+  </si>
+  <si>
+    <t>식사메뉴 골라주세요</t>
+  </si>
+  <si>
+    <t>Hello How are you?</t>
+  </si>
+  <si>
+    <t>Fuck you</t>
+  </si>
+  <si>
+    <t>멍청아멍청아</t>
+  </si>
+  <si>
+    <t>동두천중앙고등학교 아냐</t>
+  </si>
+  <si>
+    <t>민태호가 누구에요</t>
+  </si>
+  <si>
+    <t>만든 목적은 뭐에요</t>
+  </si>
+  <si>
+    <t>민태호는 누구인가요?</t>
+  </si>
+  <si>
+    <t>어떻게 학습했나요?</t>
+  </si>
+  <si>
+    <t>바보인가요?</t>
+  </si>
+  <si>
+    <t>6글자 이상 쓰는 성의</t>
+  </si>
+  <si>
+    <t>햄버거 몇개까지 드셔보셨나요</t>
+  </si>
+  <si>
+    <t>안 배고프세여?</t>
+  </si>
+  <si>
+    <t>민태호는 잘생겼나여?</t>
+  </si>
+  <si>
+    <t>안녕하세요?̊̈?</t>
+  </si>
+  <si>
+    <t>최동근에 대해 어떻게 생각하나여</t>
+  </si>
+  <si>
+    <t>민망고 맛일아요</t>
+  </si>
+  <si>
+    <t>지구의 크기</t>
+  </si>
+  <si>
+    <t>얼음의 녹는점</t>
+  </si>
+  <si>
+    <t>정말 누구세요</t>
+  </si>
+  <si>
+    <t>게임 좋아해요?</t>
+  </si>
+  <si>
+    <t>망고는 머해여?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자친구란 당신에게 없는 것을 의미합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 사랑까진 안 해요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학이 좋아요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학 질문을 해주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구의 대기는 약 80%의 질소와 20%의 산소로 이루저여 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구의 대기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대류권은 대기권의 가장 아래층이며, 활발한 대류가 일어나 기상 현상이 발생하는 게 특징입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용 반작용 법칙이란 뉴턴의 운동법칙 중 3번째 법칙으로, 힘이 작용할 때 그 힘과 크기가 같고 방향이 반대인 힘이 생긴다는 법칙입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대류권 의미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용 반작용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용반작용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음의 녹는점은 0℃입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 쓰지 마세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학 질문답변 인공지능입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능이라 새로운 문장을 말하면 업데이트 때 학습합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럭저럭이요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구의 부피</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구의 반지름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구의 반지름은 적도 기준으로 약 6378km 입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6459,10 +6749,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C1262"/>
+  <dimension ref="A1:C1343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1262" sqref="B1262"/>
+    <sheetView tabSelected="1" topLeftCell="A1326" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1343" sqref="B1343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -20351,6 +20641,897 @@
         <v>1801</v>
       </c>
     </row>
+    <row r="1263" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1263" s="1">
+        <v>1262</v>
+      </c>
+      <c r="B1263" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1263" s="2" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1264" s="1">
+        <v>1263</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1264" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1265" s="1">
+        <v>1264</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C1265" s="2" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1266" s="1">
+        <v>1265</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1267" s="1">
+        <v>1266</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1268" s="1">
+        <v>1267</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1269" s="1">
+        <v>1268</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1270" s="1">
+        <v>1269</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1270" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1271" s="1">
+        <v>1270</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C1271" s="2" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1272" s="1">
+        <v>1271</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1272" s="2" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1273" s="1">
+        <v>1272</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C1273" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1274" s="1">
+        <v>1273</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C1274" s="2" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1275" s="1">
+        <v>1274</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1275" s="2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1276" s="1">
+        <v>1275</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1276" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1277" s="1">
+        <v>1276</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C1277" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1278" s="1">
+        <v>1277</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1278" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1279" s="1">
+        <v>1278</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1279" s="2" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1280" s="1">
+        <v>1279</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C1280" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1281" s="1">
+        <v>1280</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1281" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1282" s="1">
+        <v>1281</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1282" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1283" s="1">
+        <v>1282</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1283" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1284" s="1">
+        <v>1283</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1284" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1285" s="1">
+        <v>1284</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1285" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1286" s="1">
+        <v>1285</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1286" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1287" s="1">
+        <v>1286</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1287" s="2" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1288" s="1">
+        <v>1287</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1288" s="2" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1289" s="1">
+        <v>1288</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>640</v>
+      </c>
+      <c r="C1289" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1290" s="1">
+        <v>1289</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1290" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1291" s="1">
+        <v>1290</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1291" s="2" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1292" s="1">
+        <v>1291</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1292" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1293" s="1">
+        <v>1292</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1293" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1294" s="1">
+        <v>1293</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1294" s="2" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1295" s="1">
+        <v>1294</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1295" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1296" s="1">
+        <v>1295</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1296" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1297" s="1">
+        <v>1296</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1297" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1298" s="1">
+        <v>1297</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1298" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1299" s="1">
+        <v>1298</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C1299" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1300" s="1">
+        <v>1299</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1300" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1301" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C1301" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1302" s="1">
+        <v>1301</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1302" s="2" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1303" s="1">
+        <v>1302</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C1303" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1304" s="1">
+        <v>1303</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1304" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1305" s="1">
+        <v>1304</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C1305" s="2" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1306" s="1">
+        <v>1305</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1306" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1307" s="1">
+        <v>1306</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1307" s="2" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1308" s="1">
+        <v>1307</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1308" s="2" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1309" s="1">
+        <v>1308</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C1309" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1310" s="1">
+        <v>1309</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C1310" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1311" s="1">
+        <v>1310</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1311" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1312" s="1">
+        <v>1311</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1312" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1313" s="1">
+        <v>1312</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C1313" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1314" s="1">
+        <v>1313</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1314" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1315" s="1">
+        <v>1314</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C1315" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1316" s="1">
+        <v>1315</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C1316" s="2" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1317" s="1">
+        <v>1316</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1317" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1318" s="1">
+        <v>1317</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1318" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1319" s="1">
+        <v>1318</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1319" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1320" s="1">
+        <v>1319</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1320" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1321" s="1">
+        <v>1320</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1321" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1322" s="1">
+        <v>1321</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C1322" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1323" s="1">
+        <v>1322</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C1323" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1324" s="1">
+        <v>1323</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1324" s="2" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1325" s="1">
+        <v>1324</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C1325" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1326" s="1">
+        <v>1325</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1326" s="2" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1327" s="1">
+        <v>1326</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1327" s="2" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1328" s="1">
+        <v>1327</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C1328" s="2" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1329" s="1">
+        <v>1328</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1329" s="2" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1330" s="1">
+        <v>1329</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1330" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1331" s="1">
+        <v>1330</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C1331" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1332" s="1">
+        <v>1331</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1332" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1333" s="1">
+        <v>1332</v>
+      </c>
+      <c r="B1333" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1333" s="2" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1334" s="1">
+        <v>1333</v>
+      </c>
+      <c r="B1334" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C1334" s="2" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1335" s="1">
+        <v>1334</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C1335" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1336" s="1">
+        <v>1335</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C1336" s="2" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1337" s="1">
+        <v>1336</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C1337" s="2" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1338" s="1">
+        <v>1337</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1338" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1339" s="1">
+        <v>1338</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C1339" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1340" s="1">
+        <v>1339</v>
+      </c>
+      <c r="B1340" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1340" s="2" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1341" s="1">
+        <v>1340</v>
+      </c>
+      <c r="B1341" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1341" s="2" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1342" s="1">
+        <v>1341</v>
+      </c>
+      <c r="B1342" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1342" s="2" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1343" s="1">
+        <v>1342</v>
+      </c>
+      <c r="B1343" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C1343" s="2" t="s">
+        <v>1893</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
